--- a/data/CS2/case18_1/case18_1_2020.xlsx
+++ b/data/CS2/case18_1/case18_1_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0154F664-404B-4E7A-9219-9C6443564B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEE6EE2-E57F-408A-A1FF-E8A83F66A280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="14" activeTab="23" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2370" yWindow="5010" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18963,8 +18963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35237,99 +35237,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B2*Main!$B$5)</f>
         <v>4.385234899328859E-2</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C2*Main!$B$5)</f>
         <v>4.8926174496644298E-2</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D2*Main!$B$5)</f>
         <v>4.5185234899328859E-2</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E2*Main!$B$5)</f>
         <v>4.5646308724832219E-2</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F2*Main!$B$5)</f>
         <v>4.5100671140939595E-2</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G2*Main!$B$5)</f>
         <v>4.7718120805369121E-2</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H2*Main!$B$5)</f>
         <v>4.9618791946308728E-2</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I2*Main!$B$5)</f>
         <v>9.2933557046979878E-2</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J2*Main!$B$5)</f>
         <v>0.10497181208053691</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K2*Main!$B$5)</f>
         <v>0.10308724832214763</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L2*Main!$B$5)</f>
         <v>0.10268456375838926</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M2*Main!$B$5)</f>
         <v>9.8460402684563769E-2</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N2*Main!$B$5)</f>
         <v>0.10691275167785233</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O2*Main!$B$5)</f>
         <v>0.10161744966442954</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P2*Main!$B$5)</f>
         <v>7.1957718120805356E-2</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q2*Main!$B$5)</f>
         <v>9.5983892617449662E-2</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R2*Main!$B$5)</f>
         <v>9.4316778523489936E-2</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S2*Main!$B$5)</f>
         <v>9.020134228187919E-2</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T2*Main!$B$5)</f>
         <v>7.2906040268456374E-2</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U2*Main!$B$5)</f>
         <v>6.3535570469798672E-2</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V2*Main!$B$5)</f>
         <v>6.7373154362416102E-2</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W2*Main!$B$5)</f>
         <v>6.8255033557046971E-2</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X2*Main!$B$5)</f>
         <v>4.6171812080536903E-2</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y2*Main!$B$5)</f>
         <v>4.6711409395973159E-2</v>
       </c>
     </row>
@@ -35338,99 +35338,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B3*Main!$B$5)</f>
         <v>4.5370370370370365E-3</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C3*Main!$B$5)</f>
         <v>-2.75E-2</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D3*Main!$B$5)</f>
         <v>-3.0092592592592591E-2</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E3*Main!$B$5)</f>
         <v>-4.3541666666666673E-2</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F3*Main!$B$5)</f>
         <v>-5.2175925925925917E-2</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G3*Main!$B$5)</f>
         <v>-4.1666666666666671E-2</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H3*Main!$B$5)</f>
         <v>-5.2708333333333329E-2</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I3*Main!$B$5)</f>
         <v>0.13425925925925927</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J3*Main!$B$5)</f>
         <v>0.17472222222222222</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K3*Main!$B$5)</f>
         <v>0.22430555555555554</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L3*Main!$B$5)</f>
         <v>0.125</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M3*Main!$B$5)</f>
         <v>0.11456018518518517</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N3*Main!$B$5)</f>
         <v>8.0277777777777781E-2</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O3*Main!$B$5)</f>
         <v>0.10754629629629628</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P3*Main!$B$5)</f>
         <v>4.5370370370370373E-2</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q3*Main!$B$5)</f>
         <v>3.8564814814814809E-2</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R3*Main!$B$5)</f>
         <v>4.6759259259259257E-2</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S3*Main!$B$5)</f>
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T3*Main!$B$5)</f>
         <v>0.15972222222222224</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U3*Main!$B$5)</f>
         <v>0.15879629629629627</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V3*Main!$B$5)</f>
         <v>0.12962962962962959</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W3*Main!$B$5)</f>
         <v>9.8541666666666666E-2</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X3*Main!$B$5)</f>
         <v>4.7222222222222214E-2</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y3*Main!$B$5)</f>
         <v>9.1666666666666667E-3</v>
       </c>
     </row>
@@ -35439,99 +35439,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B4*Main!$B$5)</f>
         <v>-0.12992647058823531</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C4*Main!$B$5)</f>
         <v>-0.30464338235294114</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D4*Main!$B$5)</f>
         <v>-0.52606544117647058</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E4*Main!$B$5)</f>
         <v>-0.50568749999999996</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F4*Main!$B$5)</f>
         <v>-0.49590882352941179</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G4*Main!$B$5)</f>
         <v>-0.48691654411764707</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H4*Main!$B$5)</f>
         <v>-2.7900000000000001E-2</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I4*Main!$B$5)</f>
         <v>0.58360919117647059</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J4*Main!$B$5)</f>
         <v>0.75145367647058814</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K4*Main!$B$5)</f>
         <v>0.75056470588235302</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L4*Main!$B$5)</f>
         <v>0.63937500000000003</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M4*Main!$B$5)</f>
         <v>0.78407205882352937</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N4*Main!$B$5)</f>
         <v>0.71035588235294134</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O4*Main!$B$5)</f>
         <v>0.64518749999999991</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P4*Main!$B$5)</f>
         <v>0.4547426470588235</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q4*Main!$B$5)</f>
         <v>0.28378676470588238</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R4*Main!$B$5)</f>
         <v>0.34512573529411766</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S4*Main!$B$5)</f>
         <v>0.30826764705882348</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T4*Main!$B$5)</f>
         <v>5.9287499999999993E-2</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U4*Main!$B$5)</f>
         <v>0.258075</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V4*Main!$B$5)</f>
         <v>0.35203235294117652</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W4*Main!$B$5)</f>
         <v>0.23715000000000003</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X4*Main!$B$5)</f>
         <v>-0.21325036764705885</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y4*Main!$B$5)</f>
         <v>-0.44547683823529416</v>
       </c>
     </row>
@@ -35540,99 +35540,99 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B5*Main!$B$5)</f>
         <v>-1.9520271186440676</v>
       </c>
       <c r="C5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C5*Main!$B$5)</f>
         <v>-2.0512372881355931</v>
       </c>
       <c r="D5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D5*Main!$B$5)</f>
         <v>-2.027105084745763</v>
       </c>
       <c r="E5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E5*Main!$B$5)</f>
         <v>-2.0891593220338982</v>
       </c>
       <c r="F5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F5*Main!$B$5)</f>
         <v>-2.1163559322033896</v>
       </c>
       <c r="G5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G5*Main!$B$5)</f>
         <v>-2.1955516949152543</v>
       </c>
       <c r="H5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H5*Main!$B$5)</f>
         <v>-1.9529847457627121</v>
       </c>
       <c r="I5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I5*Main!$B$5)</f>
         <v>-1.3044796610169491</v>
       </c>
       <c r="J5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J5*Main!$B$5)</f>
         <v>-0.99593220338983057</v>
       </c>
       <c r="K5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K5*Main!$B$5)</f>
         <v>-1.0323220338983052</v>
       </c>
       <c r="L5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L5*Main!$B$5)</f>
         <v>-1.3177906779661017</v>
       </c>
       <c r="M5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M5*Main!$B$5)</f>
         <v>-1.4749372881355935</v>
       </c>
       <c r="N5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N5*Main!$B$5)</f>
         <v>-1.3272711864406779</v>
       </c>
       <c r="O5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O5*Main!$B$5)</f>
         <v>-1.4847050847457626</v>
       </c>
       <c r="P5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P5*Main!$B$5)</f>
         <v>-1.3420186440677966</v>
       </c>
       <c r="Q5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q5*Main!$B$5)</f>
         <v>-1.6183898305084743</v>
       </c>
       <c r="R5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R5*Main!$B$5)</f>
         <v>-1.7831016949152543</v>
       </c>
       <c r="S5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S5*Main!$B$5)</f>
         <v>-1.6183898305084743</v>
       </c>
       <c r="T5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T5*Main!$B$5)</f>
         <v>-1.1509720338983049</v>
       </c>
       <c r="U5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U5*Main!$B$5)</f>
         <v>-1.0349076271186441</v>
       </c>
       <c r="V5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V5*Main!$B$5)</f>
         <v>-1.0246610169491528</v>
       </c>
       <c r="W5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W5*Main!$B$5)</f>
         <v>-1.363756779661017</v>
       </c>
       <c r="X5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X5*Main!$B$5)</f>
         <v>-1.6926059322033897</v>
       </c>
       <c r="Y5" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y5*Main!$B$5)</f>
         <v>-1.7777389830508474</v>
       </c>
     </row>
@@ -35641,99 +35641,99 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B6*Main!$B$5)</f>
         <v>-0.27439024390243905</v>
       </c>
       <c r="C6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C6*Main!$B$5)</f>
         <v>-0.36335365853658547</v>
       </c>
       <c r="D6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D6*Main!$B$5)</f>
         <v>-0.41530487804878047</v>
       </c>
       <c r="E6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E6*Main!$B$5)</f>
         <v>-0.41652439024390248</v>
       </c>
       <c r="F6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F6*Main!$B$5)</f>
         <v>-0.42493902439024389</v>
       </c>
       <c r="G6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G6*Main!$B$5)</f>
         <v>-0.46957317073170729</v>
       </c>
       <c r="H6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H6*Main!$B$5)</f>
         <v>-0.42292682926829273</v>
       </c>
       <c r="I6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I6*Main!$B$5)</f>
         <v>-0.16463414634146342</v>
       </c>
       <c r="J6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J6*Main!$B$5)</f>
         <v>5.5426829268292684E-2</v>
       </c>
       <c r="K6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K6*Main!$B$5)</f>
         <v>0.18475609756097566</v>
       </c>
       <c r="L6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L6*Main!$B$5)</f>
         <v>0.30786585365853658</v>
       </c>
       <c r="M6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M6*Main!$B$5)</f>
         <v>0.31692073170731705</v>
       </c>
       <c r="N6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N6*Main!$B$5)</f>
         <v>0.2832926829268293</v>
       </c>
       <c r="O6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O6*Main!$B$5)</f>
         <v>0.22707317073170732</v>
       </c>
       <c r="P6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P6*Main!$B$5)</f>
         <v>0.15091463414634146</v>
       </c>
       <c r="Q6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q6*Main!$B$5)</f>
         <v>9.5609756097560977E-2</v>
       </c>
       <c r="R6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R6*Main!$B$5)</f>
         <v>8.2317073170731711E-2</v>
       </c>
       <c r="S6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S6*Main!$B$5)</f>
         <v>7.698170731707317E-2</v>
       </c>
       <c r="T6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T6*Main!$B$5)</f>
         <v>7.4695121951219509E-2</v>
       </c>
       <c r="U6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U6*Main!$B$5)</f>
         <v>1.7926829268292682E-2</v>
       </c>
       <c r="V6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V6*Main!$B$5)</f>
         <v>0.15835365853658537</v>
       </c>
       <c r="W6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W6*Main!$B$5)</f>
         <v>7.4695121951219509E-2</v>
       </c>
       <c r="X6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X6*Main!$B$5)</f>
         <v>4.1829268292682936E-2</v>
       </c>
       <c r="Y6" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y6*Main!$B$5)</f>
         <v>-6.7073170731707335E-2</v>
       </c>
     </row>
@@ -35742,99 +35742,99 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B7*Main!$B$5)</f>
         <v>4.8479999999999995E-2</v>
       </c>
       <c r="C7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C7*Main!$B$5)</f>
         <v>5.2184999999999995E-2</v>
       </c>
       <c r="D7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D7*Main!$B$5)</f>
         <v>4.0500000000000001E-2</v>
       </c>
       <c r="E7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E7*Main!$B$5)</f>
         <v>4.6672499999999999E-2</v>
       </c>
       <c r="F7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F7*Main!$B$5)</f>
         <v>4.9724999999999998E-2</v>
       </c>
       <c r="G7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G7*Main!$B$5)</f>
         <v>5.0062499999999996E-2</v>
       </c>
       <c r="H7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H7*Main!$B$5)</f>
         <v>4.8375000000000001E-2</v>
       </c>
       <c r="I7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I7*Main!$B$5)</f>
         <v>8.783249999999998E-2</v>
       </c>
       <c r="J7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J7*Main!$B$5)</f>
         <v>0.10274999999999999</v>
       </c>
       <c r="K7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K7*Main!$B$5)</f>
         <v>0.10051125</v>
       </c>
       <c r="L7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L7*Main!$B$5)</f>
         <v>8.8728749999999981E-2</v>
       </c>
       <c r="M7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M7*Main!$B$5)</f>
         <v>0.10492125000000002</v>
       </c>
       <c r="N7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N7*Main!$B$5)</f>
         <v>0.1115625</v>
       </c>
       <c r="O7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O7*Main!$B$5)</f>
         <v>0.10172250000000001</v>
       </c>
       <c r="P7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P7*Main!$B$5)</f>
         <v>8.9437500000000003E-2</v>
       </c>
       <c r="Q7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q7*Main!$B$5)</f>
         <v>7.796249999999999E-2</v>
       </c>
       <c r="R7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R7*Main!$B$5)</f>
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="S7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S7*Main!$B$5)</f>
         <v>9.1139999999999971E-2</v>
       </c>
       <c r="T7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T7*Main!$B$5)</f>
         <v>7.1478749999999994E-2</v>
       </c>
       <c r="U7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U7*Main!$B$5)</f>
         <v>6.7687499999999984E-2</v>
       </c>
       <c r="V7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V7*Main!$B$5)</f>
         <v>7.8890625000000006E-2</v>
       </c>
       <c r="W7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W7*Main!$B$5)</f>
         <v>6.2184374999999993E-2</v>
       </c>
       <c r="X7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X7*Main!$B$5)</f>
         <v>4.7334374999999998E-2</v>
       </c>
       <c r="Y7" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y7*Main!$B$5)</f>
         <v>5.2903124999999988E-2</v>
       </c>
     </row>
@@ -35843,99 +35843,99 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B8*Main!$B$5)</f>
         <v>-0.48326304347826077</v>
       </c>
       <c r="C8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C8*Main!$B$5)</f>
         <v>-0.48703695652173912</v>
       </c>
       <c r="D8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D8*Main!$B$5)</f>
         <v>-0.51705978260869556</v>
       </c>
       <c r="E8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E8*Main!$B$5)</f>
         <v>-0.53576086956521751</v>
       </c>
       <c r="F8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F8*Main!$B$5)</f>
         <v>-0.51210652173913052</v>
       </c>
       <c r="G8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G8*Main!$B$5)</f>
         <v>-0.53165000000000007</v>
       </c>
       <c r="H8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H8*Main!$B$5)</f>
         <v>-0.46035000000000004</v>
       </c>
       <c r="I8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I8*Main!$B$5)</f>
         <v>-0.20803695652173912</v>
       </c>
       <c r="J8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J8*Main!$B$5)</f>
         <v>-3.7806521739130433E-2</v>
       </c>
       <c r="K8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K8*Main!$B$5)</f>
         <v>-3.0326086956521732E-2</v>
       </c>
       <c r="L8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L8*Main!$B$5)</f>
         <v>6.4021739130434768E-2</v>
       </c>
       <c r="M8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M8*Main!$B$5)</f>
         <v>2.0621739130434785E-2</v>
       </c>
       <c r="N8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N8*Main!$B$5)</f>
         <v>6.8065217391304342E-3</v>
       </c>
       <c r="O8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O8*Main!$B$5)</f>
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P8*Main!$B$5)</f>
         <v>-5.4991304347826092E-2</v>
       </c>
       <c r="Q8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q8*Main!$B$5)</f>
         <v>-9.4347826086956521E-2</v>
       </c>
       <c r="R8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R8*Main!$B$5)</f>
         <v>-0.13953369565217394</v>
       </c>
       <c r="S8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S8*Main!$B$5)</f>
         <v>-0.18195652173913046</v>
       </c>
       <c r="T8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T8*Main!$B$5)</f>
         <v>-0.15520217391304347</v>
       </c>
       <c r="U8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U8*Main!$B$5)</f>
         <v>-0.1882239130434783</v>
       </c>
       <c r="V8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V8*Main!$B$5)</f>
         <v>-0.13343478260869565</v>
       </c>
       <c r="W8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W8*Main!$B$5)</f>
         <v>-0.25777173913043477</v>
       </c>
       <c r="X8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X8*Main!$B$5)</f>
         <v>-0.32651086956521735</v>
       </c>
       <c r="Y8" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y8*Main!$B$5)</f>
         <v>-0.34025869565217393</v>
       </c>
     </row>
@@ -35944,99 +35944,99 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B9*Main!$B$5)</f>
         <v>-0.29949999999999993</v>
       </c>
       <c r="C9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C9*Main!$B$5)</f>
         <v>-0.30149999999999993</v>
       </c>
       <c r="D9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D9*Main!$B$5)</f>
         <v>-0.31058999999999998</v>
       </c>
       <c r="E9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E9*Main!$B$5)</f>
         <v>-0.29987999999999998</v>
       </c>
       <c r="F9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F9*Main!$B$5)</f>
         <v>-0.29596000000000006</v>
       </c>
       <c r="G9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G9*Main!$B$5)</f>
         <v>-0.29499999999999998</v>
       </c>
       <c r="H9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H9*Main!$B$5)</f>
         <v>-0.24799499999999997</v>
       </c>
       <c r="I9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I9*Main!$B$5)</f>
         <v>-0.20907000000000001</v>
       </c>
       <c r="J9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J9*Main!$B$5)</f>
         <v>-0.20249999999999996</v>
       </c>
       <c r="K9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K9*Main!$B$5)</f>
         <v>-0.20348999999999995</v>
       </c>
       <c r="L9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L9*Main!$B$5)</f>
         <v>-0.19991999999999999</v>
       </c>
       <c r="M9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M9*Main!$B$5)</f>
         <v>-0.19644500000000001</v>
       </c>
       <c r="N9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N9*Main!$B$5)</f>
         <v>-0.19700999999999999</v>
       </c>
       <c r="O9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O9*Main!$B$5)</f>
         <v>-0.20443500000000003</v>
       </c>
       <c r="P9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P9*Main!$B$5)</f>
         <v>-0.22749999999999998</v>
       </c>
       <c r="Q9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q9*Main!$B$5)</f>
         <v>-0.24224999999999997</v>
       </c>
       <c r="R9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R9*Main!$B$5)</f>
         <v>-0.24795500000000001</v>
       </c>
       <c r="S9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S9*Main!$B$5)</f>
         <v>-0.24896499999999996</v>
       </c>
       <c r="T9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T9*Main!$B$5)</f>
         <v>-0.251</v>
       </c>
       <c r="U9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U9*Main!$B$5)</f>
         <v>-0.25690499999999999</v>
       </c>
       <c r="V9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V9*Main!$B$5)</f>
         <v>-0.27876000000000001</v>
       </c>
       <c r="W9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W9*Main!$B$5)</f>
         <v>-0.28125999999999995</v>
       </c>
       <c r="X9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X9*Main!$B$5)</f>
         <v>-0.29441499999999998</v>
       </c>
       <c r="Y9" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y9*Main!$B$5)</f>
         <v>-0.30293999999999993</v>
       </c>
     </row>
@@ -36045,99 +36045,99 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B10*Main!$B$5)</f>
         <v>1.7222222222222222E-2</v>
       </c>
       <c r="C10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C10*Main!$B$5)</f>
         <v>-0.14931666666666665</v>
       </c>
       <c r="D10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D10*Main!$B$5)</f>
         <v>-0.17721666666666669</v>
       </c>
       <c r="E10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E10*Main!$B$5)</f>
         <v>-0.24593333333333336</v>
       </c>
       <c r="F10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F10*Main!$B$5)</f>
         <v>-0.22836666666666666</v>
       </c>
       <c r="G10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G10*Main!$B$5)</f>
         <v>-0.26350000000000001</v>
       </c>
       <c r="H10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H10*Main!$B$5)</f>
         <v>-0.48101666666666659</v>
       </c>
       <c r="I10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I10*Main!$B$5)</f>
         <v>-0.15809999999999999</v>
       </c>
       <c r="J10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J10*Main!$B$5)</f>
         <v>-0.23870000000000005</v>
       </c>
       <c r="K10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K10*Main!$B$5)</f>
         <v>-7.5950000000000017E-2</v>
       </c>
       <c r="L10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L10*Main!$B$5)</f>
         <v>0</v>
       </c>
       <c r="M10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M10*Main!$B$5)</f>
         <v>6.8199999999999997E-2</v>
       </c>
       <c r="N10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N10*Main!$B$5)</f>
         <v>0.21941111111111114</v>
       </c>
       <c r="O10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O10*Main!$B$5)</f>
         <v>0.22165000000000007</v>
       </c>
       <c r="P10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P10*Main!$B$5)</f>
         <v>0.18264166666666667</v>
       </c>
       <c r="Q10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q10*Main!$B$5)</f>
         <v>0.400675</v>
       </c>
       <c r="R10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R10*Main!$B$5)</f>
         <v>0.35133333333333339</v>
       </c>
       <c r="S10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S10*Main!$B$5)</f>
         <v>0.30741666666666667</v>
       </c>
       <c r="T10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T10*Main!$B$5)</f>
         <v>0.2522194444444445</v>
       </c>
       <c r="U10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U10*Main!$B$5)</f>
         <v>0.24972222222222226</v>
       </c>
       <c r="V10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V10*Main!$B$5)</f>
         <v>0.34599444444444444</v>
       </c>
       <c r="W10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W10*Main!$B$5)</f>
         <v>0.32179722222222229</v>
       </c>
       <c r="X10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X10*Main!$B$5)</f>
         <v>-3.478888888888889E-2</v>
       </c>
       <c r="Y10" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y10*Main!$B$5)</f>
         <v>-5.1150000000000008E-2</v>
       </c>
     </row>
@@ -36146,99 +36146,99 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B11*Main!$B$5)</f>
         <v>-0.15280925925925926</v>
       </c>
       <c r="C11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C11*Main!$B$5)</f>
         <v>-0.16551111111111108</v>
       </c>
       <c r="D11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D11*Main!$B$5)</f>
         <v>-0.16895925925925925</v>
       </c>
       <c r="E11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E11*Main!$B$5)</f>
         <v>-0.16723518518518515</v>
       </c>
       <c r="F11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F11*Main!$B$5)</f>
         <v>-0.1759259259259259</v>
       </c>
       <c r="G11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G11*Main!$B$5)</f>
         <v>-0.17944444444444443</v>
       </c>
       <c r="H11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H11*Main!$B$5)</f>
         <v>-5.7422222222222222E-2</v>
       </c>
       <c r="I11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I11*Main!$B$5)</f>
         <v>5.0508333333333343E-2</v>
       </c>
       <c r="J11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J11*Main!$B$5)</f>
         <v>0.11034074074074073</v>
       </c>
       <c r="K11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K11*Main!$B$5)</f>
         <v>0.11843333333333335</v>
       </c>
       <c r="L11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L11*Main!$B$5)</f>
         <v>5.1722222222222218E-2</v>
       </c>
       <c r="M11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M11*Main!$B$5)</f>
         <v>0.12615648148148148</v>
       </c>
       <c r="N11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N11*Main!$B$5)</f>
         <v>0.13370370370370371</v>
       </c>
       <c r="O11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O11*Main!$B$5)</f>
         <v>0.12842592592592589</v>
       </c>
       <c r="P11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P11*Main!$B$5)</f>
         <v>0.10305740740740742</v>
       </c>
       <c r="Q11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q11*Main!$B$5)</f>
         <v>4.310185185185185E-2</v>
       </c>
       <c r="R11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R11*Main!$B$5)</f>
         <v>2.0688888888888892E-2</v>
       </c>
       <c r="S11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S11*Main!$B$5)</f>
         <v>2.1322222222222225E-2</v>
       </c>
       <c r="T11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T11*Main!$B$5)</f>
         <v>2.2412962962962964E-2</v>
       </c>
       <c r="U11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U11*Main!$B$5)</f>
         <v>4.4421296296296285E-2</v>
       </c>
       <c r="V11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V11*Main!$B$5)</f>
         <v>6.639444444444445E-2</v>
       </c>
       <c r="W11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W11*Main!$B$5)</f>
         <v>8.7962962962962968E-3</v>
       </c>
       <c r="X11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X11*Main!$B$5)</f>
         <v>-6.5514814814814817E-2</v>
       </c>
       <c r="Y11" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y11*Main!$B$5)</f>
         <v>-0.11034074074074075</v>
       </c>
     </row>
@@ -36247,99 +36247,99 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B12*Main!$B$5)</f>
         <v>-0.10463225806451613</v>
       </c>
       <c r="C12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C12*Main!$B$5)</f>
         <v>-0.10906451612903226</v>
       </c>
       <c r="D12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D12*Main!$B$5)</f>
         <v>-0.11631290322580644</v>
       </c>
       <c r="E12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E12*Main!$B$5)</f>
         <v>-0.11475483870967741</v>
       </c>
       <c r="F12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F12*Main!$B$5)</f>
         <v>-0.1164774193548387</v>
       </c>
       <c r="G12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G12*Main!$B$5)</f>
         <v>-0.11285806451612905</v>
       </c>
       <c r="H12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H12*Main!$B$5)</f>
         <v>-8.8200000000000001E-2</v>
       </c>
       <c r="I12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I12*Main!$B$5)</f>
         <v>-7.5483870967741937E-2</v>
       </c>
       <c r="J12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J12*Main!$B$5)</f>
         <v>-6.4509677419354844E-2</v>
       </c>
       <c r="K12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K12*Main!$B$5)</f>
         <v>-4.7903225806451614E-2</v>
       </c>
       <c r="L12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L12*Main!$B$5)</f>
         <v>-5.0341935483870968E-2</v>
       </c>
       <c r="M12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M12*Main!$B$5)</f>
         <v>-5.2258064516129035E-2</v>
       </c>
       <c r="N12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N12*Main!$B$5)</f>
         <v>-6.3174193548387089E-2</v>
       </c>
       <c r="O12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O12*Main!$B$5)</f>
         <v>-6.5148387096774188E-2</v>
       </c>
       <c r="P12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P12*Main!$B$5)</f>
         <v>-7.2329032258064516E-2</v>
       </c>
       <c r="Q12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q12*Main!$B$5)</f>
         <v>-7.2329032258064516E-2</v>
       </c>
       <c r="R12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R12*Main!$B$5)</f>
         <v>-7.1854838709677432E-2</v>
       </c>
       <c r="S12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S12*Main!$B$5)</f>
         <v>-5.6264516129032265E-2</v>
       </c>
       <c r="T12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T12*Main!$B$5)</f>
         <v>-5.0825806451612908E-2</v>
       </c>
       <c r="U12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U12*Main!$B$5)</f>
         <v>-5.5954838709677435E-2</v>
       </c>
       <c r="V12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V12*Main!$B$5)</f>
         <v>-4.5522580645161292E-2</v>
       </c>
       <c r="W12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W12*Main!$B$5)</f>
         <v>-5.9400000000000015E-2</v>
       </c>
       <c r="X12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X12*Main!$B$5)</f>
         <v>-6.939677419354838E-2</v>
       </c>
       <c r="Y12" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y12*Main!$B$5)</f>
         <v>-7.9954838709677428E-2</v>
       </c>
     </row>
@@ -36348,99 +36348,99 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B13*Main!$B$5)</f>
         <v>-0.18457060112699511</v>
       </c>
       <c r="C13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C13*Main!$B$5)</f>
         <v>-0.22582558384708551</v>
       </c>
       <c r="D13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D13*Main!$B$5)</f>
         <v>-0.26529570103611361</v>
       </c>
       <c r="E13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E13*Main!$B$5)</f>
         <v>-0.26621301436715678</v>
       </c>
       <c r="F13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F13*Main!$B$5)</f>
         <v>-0.26777419596677243</v>
       </c>
       <c r="G13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G13*Main!$B$5)</f>
         <v>-0.2628274499759648</v>
       </c>
       <c r="H13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H13*Main!$B$5)</f>
         <v>-0.20787778141108293</v>
       </c>
       <c r="I13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I13*Main!$B$5)</f>
         <v>6.05071668321159E-3</v>
       </c>
       <c r="J13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J13*Main!$B$5)</f>
         <v>8.3644980532667793E-2</v>
       </c>
       <c r="K13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K13*Main!$B$5)</f>
         <v>0.12512987787755656</v>
       </c>
       <c r="L13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L13*Main!$B$5)</f>
         <v>9.6612132749126042E-2</v>
       </c>
       <c r="M13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M13*Main!$B$5)</f>
         <v>0.12772235164024426</v>
       </c>
       <c r="N13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N13*Main!$B$5)</f>
         <v>0.12855595907397621</v>
       </c>
       <c r="O13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O13*Main!$B$5)</f>
         <v>0.11066933853792792</v>
       </c>
       <c r="P13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P13*Main!$B$5)</f>
         <v>5.2116956629394723E-2</v>
       </c>
       <c r="Q13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q13*Main!$B$5)</f>
         <v>3.4152891825121039E-2</v>
       </c>
       <c r="R13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R13*Main!$B$5)</f>
         <v>2.6282535181184043E-2</v>
       </c>
       <c r="S13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S13*Main!$B$5)</f>
         <v>3.1378361434531953E-2</v>
       </c>
       <c r="T13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T13*Main!$B$5)</f>
         <v>2.6627481742999198E-2</v>
       </c>
       <c r="U13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U13*Main!$B$5)</f>
         <v>2.815031309798809E-2</v>
       </c>
       <c r="V13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V13*Main!$B$5)</f>
         <v>6.3212464820453756E-2</v>
       </c>
       <c r="W13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W13*Main!$B$5)</f>
         <v>9.9580633418613462E-4</v>
       </c>
       <c r="X13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X13*Main!$B$5)</f>
         <v>-0.1067341846963378</v>
       </c>
       <c r="Y13" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y13*Main!$B$5)</f>
         <v>-0.1522522854824446</v>
       </c>
     </row>
@@ -36449,99 +36449,99 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B14*Main!$B$5)</f>
         <v>6.8888888888888888E-2</v>
       </c>
       <c r="C14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C14*Main!$B$5)</f>
         <v>6.3328571428571429E-2</v>
       </c>
       <c r="D14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D14*Main!$B$5)</f>
         <v>4.741851851851852E-2</v>
       </c>
       <c r="E14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E14*Main!$B$5)</f>
         <v>4.2998148148148146E-2</v>
       </c>
       <c r="F14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F14*Main!$B$5)</f>
         <v>4.0587037037037033E-2</v>
       </c>
       <c r="G14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G14*Main!$B$5)</f>
         <v>5.1445238095238099E-2</v>
       </c>
       <c r="H14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H14*Main!$B$5)</f>
         <v>0.16731798941798942</v>
       </c>
       <c r="I14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I14*Main!$B$5)</f>
         <v>0.22322870370370371</v>
       </c>
       <c r="J14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J14*Main!$B$5)</f>
         <v>0.27767962962962961</v>
       </c>
       <c r="K14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K14*Main!$B$5)</f>
         <v>0.26482037037037037</v>
       </c>
       <c r="L14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L14*Main!$B$5)</f>
         <v>0.26630066137566138</v>
       </c>
       <c r="M14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M14*Main!$B$5)</f>
         <v>0.26038359788359788</v>
       </c>
       <c r="N14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N14*Main!$B$5)</f>
         <v>0.2873404761904762</v>
       </c>
       <c r="O14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O14*Main!$B$5)</f>
         <v>0.26350000000000001</v>
       </c>
       <c r="P14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P14*Main!$B$5)</f>
         <v>0.2350464285714286</v>
       </c>
       <c r="Q14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q14*Main!$B$5)</f>
         <v>0.22281455026455027</v>
       </c>
       <c r="R14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R14*Main!$B$5)</f>
         <v>0.21814814814814817</v>
       </c>
       <c r="S14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S14*Main!$B$5)</f>
         <v>0.21659814814814818</v>
       </c>
       <c r="T14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T14*Main!$B$5)</f>
         <v>0.18227261904761899</v>
       </c>
       <c r="U14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U14*Main!$B$5)</f>
         <v>0.16980291005291007</v>
       </c>
       <c r="V14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V14*Main!$B$5)</f>
         <v>0.17480555555555555</v>
       </c>
       <c r="W14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W14*Main!$B$5)</f>
         <v>0.12381547619047621</v>
       </c>
       <c r="X14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X14*Main!$B$5)</f>
         <v>5.4397619047619056E-2</v>
       </c>
       <c r="Y14" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y14*Main!$B$5)</f>
         <v>5.7866666666666663E-2</v>
       </c>
     </row>
@@ -36550,99 +36550,99 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B15*Main!$B$5)</f>
         <v>0.59416666666666662</v>
       </c>
       <c r="C15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C15*Main!$B$5)</f>
         <v>0.56962499999999994</v>
       </c>
       <c r="D15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D15*Main!$B$5)</f>
         <v>0.61315416666666667</v>
       </c>
       <c r="E15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E15*Main!$B$5)</f>
         <v>0.63239999999999996</v>
       </c>
       <c r="F15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F15*Main!$B$5)</f>
         <v>0.63239999999999996</v>
       </c>
       <c r="G15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G15*Main!$B$5)</f>
         <v>0.60010833333333324</v>
       </c>
       <c r="H15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H15*Main!$B$5)</f>
         <v>0.52958333333333341</v>
       </c>
       <c r="I15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I15*Main!$B$5)</f>
         <v>0.49367500000000009</v>
       </c>
       <c r="J15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J15*Main!$B$5)</f>
         <v>0.38750000000000007</v>
       </c>
       <c r="K15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K15*Main!$B$5)</f>
         <v>0.27124999999999999</v>
       </c>
       <c r="L15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L15*Main!$B$5)</f>
         <v>0.29708333333333337</v>
       </c>
       <c r="M15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M15*Main!$B$5)</f>
         <v>0.35805000000000009</v>
       </c>
       <c r="N15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N15*Main!$B$5)</f>
         <v>0.25833333333333336</v>
       </c>
       <c r="O15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O15*Main!$B$5)</f>
         <v>0.36166666666666669</v>
       </c>
       <c r="P15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P15*Main!$B$5)</f>
         <v>0.40920000000000006</v>
       </c>
       <c r="Q15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q15*Main!$B$5)</f>
         <v>0.42160000000000009</v>
       </c>
       <c r="R15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R15*Main!$B$5)</f>
         <v>0.41333333333333339</v>
       </c>
       <c r="S15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S15*Main!$B$5)</f>
         <v>0.40842499999999998</v>
       </c>
       <c r="T15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T15*Main!$B$5)</f>
         <v>0.38207500000000005</v>
       </c>
       <c r="U15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U15*Main!$B$5)</f>
         <v>0.46964999999999996</v>
       </c>
       <c r="V15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V15*Main!$B$5)</f>
         <v>0.48592500000000011</v>
       </c>
       <c r="W15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W15*Main!$B$5)</f>
         <v>0.5443083333333335</v>
       </c>
       <c r="X15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X15*Main!$B$5)</f>
         <v>0.50633333333333341</v>
       </c>
       <c r="Y15" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y15*Main!$B$5)</f>
         <v>0.52958333333333341</v>
       </c>
     </row>
@@ -36651,99 +36651,99 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!B16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!B16*Main!$B$5)</f>
         <v>4.3409395973154359E-2</v>
       </c>
       <c r="C16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!C16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!C16*Main!$B$5)</f>
         <v>4.9415436241610745E-2</v>
       </c>
       <c r="D16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!D16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!D16*Main!$B$5)</f>
         <v>4.6568456375838924E-2</v>
       </c>
       <c r="E16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!E16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!E16*Main!$B$5)</f>
         <v>4.5185234899328859E-2</v>
       </c>
       <c r="F16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!F16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!F16*Main!$B$5)</f>
         <v>4.5551677852348996E-2</v>
       </c>
       <c r="G16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!G16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!G16*Main!$B$5)</f>
         <v>4.7240939597315429E-2</v>
       </c>
       <c r="H16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!H16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!H16*Main!$B$5)</f>
         <v>4.8636241610738262E-2</v>
       </c>
       <c r="I16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!I16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!I16*Main!$B$5)</f>
         <v>9.2013422818791962E-2</v>
       </c>
       <c r="J16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!J16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!J16*Main!$B$5)</f>
         <v>0.10711409395973155</v>
       </c>
       <c r="K16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!K16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!K16*Main!$B$5)</f>
         <v>0.10514899328859058</v>
       </c>
       <c r="L16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!L16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!L16*Main!$B$5)</f>
         <v>0.10067114093959731</v>
       </c>
       <c r="M16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!M16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!M16*Main!$B$5)</f>
         <v>9.9465100671140949E-2</v>
       </c>
       <c r="N16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!N16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!N16*Main!$B$5)</f>
         <v>0.10691275167785233</v>
       </c>
       <c r="O16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!O16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!O16*Main!$B$5)</f>
         <v>0.10472818791946309</v>
       </c>
       <c r="P16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!P16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!P16*Main!$B$5)</f>
         <v>7.1957718120805356E-2</v>
       </c>
       <c r="Q16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Q16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Q16*Main!$B$5)</f>
         <v>9.5033557046979855E-2</v>
       </c>
       <c r="R16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!R16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!R16*Main!$B$5)</f>
         <v>9.8166442953020128E-2</v>
       </c>
       <c r="S16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!S16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!S16*Main!$B$5)</f>
         <v>9.2005369127516792E-2</v>
       </c>
       <c r="T16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!T16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!T16*Main!$B$5)</f>
         <v>7.0761744966442955E-2</v>
       </c>
       <c r="U16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!U16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!U16*Main!$B$5)</f>
         <v>6.4183892617449667E-2</v>
       </c>
       <c r="V16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!V16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!V16*Main!$B$5)</f>
         <v>6.8053691275167791E-2</v>
       </c>
       <c r="W16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!W16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!W16*Main!$B$5)</f>
         <v>6.8255033557046971E-2</v>
       </c>
       <c r="X16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!X16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!X16*Main!$B$5)</f>
         <v>4.6642953020134222E-2</v>
       </c>
       <c r="Y16" s="2">
-        <f ca="1">('[1]Qc, Summer, S2'!Y16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S2'!Y16*Main!$B$5)</f>
         <v>4.5777181208053692E-2</v>
       </c>
     </row>
@@ -37198,8 +37198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A106AF-552F-429C-9AE8-7A3D156E6F42}">
   <dimension ref="A1:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37286,99 +37286,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B2*Main!$B$5)</f>
         <v>4.429530201342282E-2</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C2*Main!$B$5)</f>
         <v>4.8436912751677857E-2</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D2*Main!$B$5)</f>
         <v>4.5185234899328859E-2</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E2*Main!$B$5)</f>
         <v>4.5185234899328859E-2</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F2*Main!$B$5)</f>
         <v>4.5100671140939595E-2</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G2*Main!$B$5)</f>
         <v>4.8195302013422807E-2</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H2*Main!$B$5)</f>
         <v>4.9127516778523492E-2</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I2*Main!$B$5)</f>
         <v>9.2933557046979878E-2</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J2*Main!$B$5)</f>
         <v>0.10604295302013424</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K2*Main!$B$5)</f>
         <v>0.10205637583892616</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L2*Main!$B$5)</f>
         <v>0.10167785234899329</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M2*Main!$B$5)</f>
         <v>0.1024791946308725</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N2*Main!$B$5)</f>
         <v>0.10798187919463087</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O2*Main!$B$5)</f>
         <v>0.1026543624161074</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P2*Main!$B$5)</f>
         <v>7.1230872483221463E-2</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q2*Main!$B$5)</f>
         <v>9.5033557046979855E-2</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R2*Main!$B$5)</f>
         <v>9.6241610738255032E-2</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S2*Main!$B$5)</f>
         <v>9.2005369127516792E-2</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T2*Main!$B$5)</f>
         <v>7.2906040268456374E-2</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U2*Main!$B$5)</f>
         <v>6.6128859060402695E-2</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V2*Main!$B$5)</f>
         <v>6.8053691275167791E-2</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W2*Main!$B$5)</f>
         <v>6.7572483221476506E-2</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X2*Main!$B$5)</f>
         <v>4.6171812080536903E-2</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y2*Main!$B$5)</f>
         <v>4.6244295302013433E-2</v>
       </c>
     </row>
@@ -37387,99 +37387,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B3*Main!$B$5)</f>
         <v>4.6759259259259254E-3</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C3*Main!$B$5)</f>
         <v>-2.7222222222222224E-2</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D3*Main!$B$5)</f>
         <v>-2.9791666666666664E-2</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E3*Main!$B$5)</f>
         <v>-4.4421296296296299E-2</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F3*Main!$B$5)</f>
         <v>-5.2175925925925917E-2</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G3*Main!$B$5)</f>
         <v>-4.250000000000001E-2</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H3*Main!$B$5)</f>
         <v>-5.2175925925925924E-2</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I3*Main!$B$5)</f>
         <v>0.13694444444444445</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J3*Main!$B$5)</f>
         <v>0.17472222222222222</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K3*Main!$B$5)</f>
         <v>0.21990740740740736</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L3*Main!$B$5)</f>
         <v>0.12375</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M3*Main!$B$5)</f>
         <v>0.11456018518518517</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N3*Main!$B$5)</f>
         <v>7.7916666666666676E-2</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O3*Main!$B$5)</f>
         <v>0.10754629629629628</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P3*Main!$B$5)</f>
         <v>4.5370370370370373E-2</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q3*Main!$B$5)</f>
         <v>3.8564814814814809E-2</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R3*Main!$B$5)</f>
         <v>4.583333333333333E-2</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S3*Main!$B$5)</f>
         <v>8.2500000000000004E-2</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T3*Main!$B$5)</f>
         <v>0.16291666666666668</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U3*Main!$B$5)</f>
         <v>0.15879629629629627</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V3*Main!$B$5)</f>
         <v>0.127037037037037</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W3*Main!$B$5)</f>
         <v>0.10152777777777777</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X3*Main!$B$5)</f>
         <v>4.5833333333333323E-2</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y3*Main!$B$5)</f>
         <v>9.2592592592592587E-3</v>
       </c>
     </row>
@@ -37488,99 +37488,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B4*Main!$B$5)</f>
         <v>-0.12732794117647059</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C4*Main!$B$5)</f>
         <v>-0.31079779411764707</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D4*Main!$B$5)</f>
         <v>-0.5475374999999999</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E4*Main!$B$5)</f>
         <v>-0.50568749999999996</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F4*Main!$B$5)</f>
         <v>-0.49590882352941179</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G4*Main!$B$5)</f>
         <v>-0.47727463235294132</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H4*Main!$B$5)</f>
         <v>-2.7079411764705883E-2</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I4*Main!$B$5)</f>
         <v>0.57205257352941175</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J4*Main!$B$5)</f>
         <v>0.76663455882352938</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K4*Main!$B$5)</f>
         <v>0.75056470588235302</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L4*Main!$B$5)</f>
         <v>0.64576875</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M4*Main!$B$5)</f>
         <v>0.80007352941176457</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N4*Main!$B$5)</f>
         <v>0.71760441176470591</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O4*Main!$B$5)</f>
         <v>0.62621139705882356</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P4*Main!$B$5)</f>
         <v>0.4547426470588235</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q4*Main!$B$5)</f>
         <v>0.28378676470588238</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R4*Main!$B$5)</f>
         <v>0.34864742647058822</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S4*Main!$B$5)</f>
         <v>0.32084999999999991</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T4*Main!$B$5)</f>
         <v>5.8124999999999996E-2</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U4*Main!$B$5)</f>
         <v>0.258075</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V4*Main!$B$5)</f>
         <v>0.36270000000000002</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W4*Main!$B$5)</f>
         <v>0.23482500000000001</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X4*Main!$B$5)</f>
         <v>-0.21755845588235295</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y4*Main!$B$5)</f>
         <v>-0.44988750000000005</v>
       </c>
     </row>
@@ -37589,99 +37589,99 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B5*Main!$B$5)</f>
         <v>-2.0117830508474577</v>
       </c>
       <c r="C5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C5*Main!$B$5)</f>
         <v>-1.9909067796610169</v>
       </c>
       <c r="D5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D5*Main!$B$5)</f>
         <v>-2.1098440677966104</v>
       </c>
       <c r="E5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E5*Main!$B$5)</f>
         <v>-2.0891593220338982</v>
       </c>
       <c r="F5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F5*Main!$B$5)</f>
         <v>-2.1375194915254236</v>
       </c>
       <c r="G5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G5*Main!$B$5)</f>
         <v>-2.1955516949152543</v>
       </c>
       <c r="H5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H5*Main!$B$5)</f>
         <v>-2.0121661016949153</v>
       </c>
       <c r="I5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I5*Main!$B$5)</f>
         <v>-1.3177906779661017</v>
       </c>
       <c r="J5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J5*Main!$B$5)</f>
         <v>-1.0158508474576271</v>
       </c>
       <c r="K5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K5*Main!$B$5)</f>
         <v>-1.0744576271186441</v>
       </c>
       <c r="L5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L5*Main!$B$5)</f>
         <v>-1.3577237288135595</v>
       </c>
       <c r="M5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M5*Main!$B$5)</f>
         <v>-1.4315567796610171</v>
       </c>
       <c r="N5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N5*Main!$B$5)</f>
         <v>-1.3674915254237288</v>
       </c>
       <c r="O5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O5*Main!$B$5)</f>
         <v>-1.455593220338983</v>
       </c>
       <c r="P5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P5*Main!$B$5)</f>
         <v>-1.3420186440677966</v>
       </c>
       <c r="Q5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q5*Main!$B$5)</f>
         <v>-1.6022059322033897</v>
       </c>
       <c r="R5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R5*Main!$B$5)</f>
         <v>-1.8012966101694916</v>
       </c>
       <c r="S5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S5*Main!$B$5)</f>
         <v>-1.5860220338983049</v>
       </c>
       <c r="T5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T5*Main!$B$5)</f>
         <v>-1.1281805084745762</v>
       </c>
       <c r="U5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U5*Main!$B$5)</f>
         <v>-1.0349076271186441</v>
       </c>
       <c r="V5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V5*Main!$B$5)</f>
         <v>-1.0451542372881357</v>
       </c>
       <c r="W5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W5*Main!$B$5)</f>
         <v>-1.3232491525423731</v>
       </c>
       <c r="X5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X5*Main!$B$5)</f>
         <v>-1.7093644067796612</v>
       </c>
       <c r="Y5" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y5*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y5*Main!$B$5)</f>
         <v>-1.7254525423728813</v>
       </c>
     </row>
@@ -37690,99 +37690,99 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B6*Main!$B$5)</f>
         <v>-0.27439024390243905</v>
       </c>
       <c r="C6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C6*Main!$B$5)</f>
         <v>-0.36335365853658547</v>
       </c>
       <c r="D6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D6*Main!$B$5)</f>
         <v>-0.41530487804878047</v>
       </c>
       <c r="E6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E6*Main!$B$5)</f>
         <v>-0.42914634146341468</v>
       </c>
       <c r="F6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F6*Main!$B$5)</f>
         <v>-0.42493902439024389</v>
       </c>
       <c r="G6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G6*Main!$B$5)</f>
         <v>-0.46036585365853655</v>
       </c>
       <c r="H6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H6*Main!$B$5)</f>
         <v>-0.41048780487804881</v>
       </c>
       <c r="I6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I6*Main!$B$5)</f>
         <v>-0.16298780487804879</v>
       </c>
       <c r="J6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J6*Main!$B$5)</f>
         <v>5.5426829268292684E-2</v>
       </c>
       <c r="K6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K6*Main!$B$5)</f>
         <v>0.18658536585365859</v>
       </c>
       <c r="L6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L6*Main!$B$5)</f>
         <v>0.30182926829268292</v>
       </c>
       <c r="M6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M6*Main!$B$5)</f>
         <v>0.31692073170731705</v>
       </c>
       <c r="N6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N6*Main!$B$5)</f>
         <v>0.27768292682926832</v>
       </c>
       <c r="O6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O6*Main!$B$5)</f>
         <v>0.22707317073170732</v>
       </c>
       <c r="P6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P6*Main!$B$5)</f>
         <v>0.15091463414634146</v>
       </c>
       <c r="Q6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q6*Main!$B$5)</f>
         <v>9.8536585365853663E-2</v>
       </c>
       <c r="R6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R6*Main!$B$5)</f>
         <v>8.1493902439024393E-2</v>
       </c>
       <c r="S6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S6*Main!$B$5)</f>
         <v>7.698170731707317E-2</v>
       </c>
       <c r="T6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T6*Main!$B$5)</f>
         <v>7.774390243902439E-2</v>
       </c>
       <c r="U6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U6*Main!$B$5)</f>
         <v>1.8292682926829267E-2</v>
       </c>
       <c r="V6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V6*Main!$B$5)</f>
         <v>0.15996951219512195</v>
       </c>
       <c r="W6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W6*Main!$B$5)</f>
         <v>7.698170731707317E-2</v>
       </c>
       <c r="X6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X6*Main!$B$5)</f>
         <v>4.2682926829268296E-2</v>
       </c>
       <c r="Y6" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y6*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y6*Main!$B$5)</f>
         <v>-6.7743902439024409E-2</v>
       </c>
     </row>
@@ -37791,99 +37791,99 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B7*Main!$B$5)</f>
         <v>4.8959999999999997E-2</v>
       </c>
       <c r="C7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C7*Main!$B$5)</f>
         <v>5.378249999999999E-2</v>
       </c>
       <c r="D7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D7*Main!$B$5)</f>
         <v>4.0500000000000001E-2</v>
       </c>
       <c r="E7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E7*Main!$B$5)</f>
         <v>4.8101249999999991E-2</v>
       </c>
       <c r="F7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F7*Main!$B$5)</f>
         <v>4.9724999999999998E-2</v>
       </c>
       <c r="G7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G7*Main!$B$5)</f>
         <v>4.9061250000000001E-2</v>
       </c>
       <c r="H7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H7*Main!$B$5)</f>
         <v>4.8858750000000006E-2</v>
       </c>
       <c r="I7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I7*Main!$B$5)</f>
         <v>8.9624999999999996E-2</v>
       </c>
       <c r="J7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J7*Main!$B$5)</f>
         <v>0.10069500000000001</v>
       </c>
       <c r="K7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K7*Main!$B$5)</f>
         <v>0.101536875</v>
       </c>
       <c r="L7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L7*Main!$B$5)</f>
         <v>8.9624999999999982E-2</v>
       </c>
       <c r="M7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M7*Main!$B$5)</f>
         <v>0.10492125000000002</v>
       </c>
       <c r="N7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N7*Main!$B$5)</f>
         <v>0.110446875</v>
       </c>
       <c r="O7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O7*Main!$B$5)</f>
         <v>0.10377749999999999</v>
       </c>
       <c r="P7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P7*Main!$B$5)</f>
         <v>8.8543124999999986E-2</v>
       </c>
       <c r="Q7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q7*Main!$B$5)</f>
         <v>7.796249999999999E-2</v>
       </c>
       <c r="R7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R7*Main!$B$5)</f>
         <v>9.5039999999999986E-2</v>
       </c>
       <c r="S7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S7*Main!$B$5)</f>
         <v>9.486E-2</v>
       </c>
       <c r="T7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T7*Main!$B$5)</f>
         <v>7.4396249999999997E-2</v>
       </c>
       <c r="U7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U7*Main!$B$5)</f>
         <v>6.701062499999999E-2</v>
       </c>
       <c r="V7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V7*Main!$B$5)</f>
         <v>8.1281249999999999E-2</v>
       </c>
       <c r="W7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W7*Main!$B$5)</f>
         <v>6.4068750000000008E-2</v>
       </c>
       <c r="X7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X7*Main!$B$5)</f>
         <v>4.8290624999999997E-2</v>
       </c>
       <c r="Y7" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y7*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y7*Main!$B$5)</f>
         <v>5.3437499999999992E-2</v>
       </c>
     </row>
@@ -37892,99 +37892,99 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B8*Main!$B$5)</f>
         <v>-0.47369347826086949</v>
       </c>
       <c r="C8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C8*Main!$B$5)</f>
         <v>-0.49687608695652169</v>
       </c>
       <c r="D8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D8*Main!$B$5)</f>
         <v>-0.51183695652173899</v>
       </c>
       <c r="E8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E8*Main!$B$5)</f>
         <v>-0.53040326086956535</v>
       </c>
       <c r="F8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F8*Main!$B$5)</f>
         <v>-0.49704456521739127</v>
       </c>
       <c r="G8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G8*Main!$B$5)</f>
         <v>-0.55335000000000012</v>
       </c>
       <c r="H8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H8*Main!$B$5)</f>
         <v>-0.46499999999999997</v>
       </c>
       <c r="I8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I8*Main!$B$5)</f>
         <v>-0.20803695652173912</v>
       </c>
       <c r="J8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J8*Main!$B$5)</f>
         <v>-3.743586956521739E-2</v>
       </c>
       <c r="K8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K8*Main!$B$5)</f>
         <v>-2.9719565217391299E-2</v>
       </c>
       <c r="L8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L8*Main!$B$5)</f>
         <v>6.2741304347826085E-2</v>
       </c>
       <c r="M8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M8*Main!$B$5)</f>
         <v>2.0621739130434785E-2</v>
       </c>
       <c r="N8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N8*Main!$B$5)</f>
         <v>6.6717391304347813E-3</v>
       </c>
       <c r="O8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O8*Main!$B$5)</f>
         <v>0</v>
       </c>
       <c r="P8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P8*Main!$B$5)</f>
         <v>-5.3373913043478251E-2</v>
       </c>
       <c r="Q8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q8*Main!$B$5)</f>
         <v>-9.4347826086956521E-2</v>
       </c>
       <c r="R8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R8*Main!$B$5)</f>
         <v>-0.13538913043478262</v>
       </c>
       <c r="S8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S8*Main!$B$5)</f>
         <v>-0.17831739130434784</v>
       </c>
       <c r="T8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T8*Main!$B$5)</f>
         <v>-0.16153695652173916</v>
       </c>
       <c r="U8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U8*Main!$B$5)</f>
         <v>-0.19206521739130436</v>
       </c>
       <c r="V8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V8*Main!$B$5)</f>
         <v>-0.13747826086956522</v>
       </c>
       <c r="W8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W8*Main!$B$5)</f>
         <v>-0.25019021739130431</v>
       </c>
       <c r="X8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X8*Main!$B$5)</f>
         <v>-0.32651086956521735</v>
       </c>
       <c r="Y8" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y8*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y8*Main!$B$5)</f>
         <v>-0.34025869565217393</v>
       </c>
     </row>
@@ -37993,99 +37993,99 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B9*Main!$B$5)</f>
         <v>-0.30548999999999998</v>
       </c>
       <c r="C9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C9*Main!$B$5)</f>
         <v>-0.29848499999999994</v>
       </c>
       <c r="D9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D9*Main!$B$5)</f>
         <v>-0.30449999999999999</v>
       </c>
       <c r="E9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E9*Main!$B$5)</f>
         <v>-0.30599999999999999</v>
       </c>
       <c r="F9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F9*Main!$B$5)</f>
         <v>-0.30200000000000005</v>
       </c>
       <c r="G9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G9*Main!$B$5)</f>
         <v>-0.29205000000000003</v>
       </c>
       <c r="H9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H9*Main!$B$5)</f>
         <v>-0.2505</v>
       </c>
       <c r="I9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I9*Main!$B$5)</f>
         <v>-0.20493</v>
       </c>
       <c r="J9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J9*Main!$B$5)</f>
         <v>-0.19844999999999999</v>
       </c>
       <c r="K9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K9*Main!$B$5)</f>
         <v>-0.19949999999999996</v>
       </c>
       <c r="L9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L9*Main!$B$5)</f>
         <v>-0.19208</v>
       </c>
       <c r="M9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M9*Main!$B$5)</f>
         <v>-0.19839000000000001</v>
       </c>
       <c r="N9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N9*Main!$B$5)</f>
         <v>-0.19700999999999999</v>
       </c>
       <c r="O9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O9*Main!$B$5)</f>
         <v>-0.20443500000000003</v>
       </c>
       <c r="P9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P9*Main!$B$5)</f>
         <v>-0.22294999999999998</v>
       </c>
       <c r="Q9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q9*Main!$B$5)</f>
         <v>-0.23749999999999999</v>
       </c>
       <c r="R9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R9*Main!$B$5)</f>
         <v>-0.24550000000000002</v>
       </c>
       <c r="S9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S9*Main!$B$5)</f>
         <v>-0.25142999999999999</v>
       </c>
       <c r="T9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T9*Main!$B$5)</f>
         <v>-0.24597999999999998</v>
       </c>
       <c r="U9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U9*Main!$B$5)</f>
         <v>-0.26209500000000002</v>
       </c>
       <c r="V9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V9*Main!$B$5)</f>
         <v>-0.28151999999999999</v>
       </c>
       <c r="W9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W9*Main!$B$5)</f>
         <v>-0.28125999999999995</v>
       </c>
       <c r="X9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X9*Main!$B$5)</f>
         <v>-0.29732999999999998</v>
       </c>
       <c r="Y9" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y9*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y9*Main!$B$5)</f>
         <v>-0.29402999999999996</v>
       </c>
     </row>
@@ -38094,99 +38094,99 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B10*Main!$B$5)</f>
         <v>1.7566666666666664E-2</v>
       </c>
       <c r="C10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C10*Main!$B$5)</f>
         <v>-0.144925</v>
       </c>
       <c r="D10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D10*Main!$B$5)</f>
         <v>-0.18264166666666667</v>
       </c>
       <c r="E10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E10*Main!$B$5)</f>
         <v>-0.24111111111111114</v>
       </c>
       <c r="F10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F10*Main!$B$5)</f>
         <v>-0.22388888888888892</v>
       </c>
       <c r="G10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G10*Main!$B$5)</f>
         <v>-0.25833333333333336</v>
       </c>
       <c r="H10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H10*Main!$B$5)</f>
         <v>-0.50065000000000004</v>
       </c>
       <c r="I10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I10*Main!$B$5)</f>
         <v>-0.15190000000000001</v>
       </c>
       <c r="J10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J10*Main!$B$5)</f>
         <v>-0.24111111111111114</v>
       </c>
       <c r="K10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K10*Main!$B$5)</f>
         <v>-7.5950000000000017E-2</v>
       </c>
       <c r="L10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L10*Main!$B$5)</f>
         <v>0</v>
       </c>
       <c r="M10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M10*Main!$B$5)</f>
         <v>7.0266666666666672E-2</v>
       </c>
       <c r="N10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N10*Main!$B$5)</f>
         <v>0.21941111111111114</v>
       </c>
       <c r="O10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O10*Main!$B$5)</f>
         <v>0.22612777777777782</v>
       </c>
       <c r="P10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P10*Main!$B$5)</f>
         <v>0.18264166666666667</v>
       </c>
       <c r="Q10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q10*Main!$B$5)</f>
         <v>0.400675</v>
       </c>
       <c r="R10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R10*Main!$B$5)</f>
         <v>0.35133333333333339</v>
       </c>
       <c r="S10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S10*Main!$B$5)</f>
         <v>0.30138888888888893</v>
       </c>
       <c r="T10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T10*Main!$B$5)</f>
         <v>0.25471666666666676</v>
       </c>
       <c r="U10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U10*Main!$B$5)</f>
         <v>0.2522194444444445</v>
       </c>
       <c r="V10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V10*Main!$B$5)</f>
         <v>0.34952499999999997</v>
       </c>
       <c r="W10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W10*Main!$B$5)</f>
         <v>0.31861111111111112</v>
       </c>
       <c r="X10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X10*Main!$B$5)</f>
         <v>-3.4099999999999998E-2</v>
       </c>
       <c r="Y10" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y10*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y10*Main!$B$5)</f>
         <v>-5.2700000000000011E-2</v>
       </c>
     </row>
@@ -38195,99 +38195,99 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B11*Main!$B$5)</f>
         <v>-0.15280925925925926</v>
       </c>
       <c r="C11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C11*Main!$B$5)</f>
         <v>-0.17226666666666665</v>
       </c>
       <c r="D11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D11*Main!$B$5)</f>
         <v>-0.17413148148148147</v>
       </c>
       <c r="E11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E11*Main!$B$5)</f>
         <v>-0.16723518518518515</v>
       </c>
       <c r="F11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F11*Main!$B$5)</f>
         <v>-0.1759259259259259</v>
       </c>
       <c r="G11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G11*Main!$B$5)</f>
         <v>-0.18123888888888889</v>
       </c>
       <c r="H11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H11*Main!$B$5)</f>
         <v>-5.7422222222222222E-2</v>
       </c>
       <c r="I11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I11*Main!$B$5)</f>
         <v>5.1528703703703709E-2</v>
       </c>
       <c r="J11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J11*Main!$B$5)</f>
         <v>0.11034074074074073</v>
       </c>
       <c r="K11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K11*Main!$B$5)</f>
         <v>0.12202222222222223</v>
       </c>
       <c r="L11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L11*Main!$B$5)</f>
         <v>5.3305555555555544E-2</v>
       </c>
       <c r="M11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M11*Main!$B$5)</f>
         <v>0.12615648148148148</v>
       </c>
       <c r="N11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N11*Main!$B$5)</f>
         <v>0.13637777777777779</v>
       </c>
       <c r="O11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O11*Main!$B$5)</f>
         <v>0.12714166666666663</v>
       </c>
       <c r="P11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P11*Main!$B$5)</f>
         <v>0.10305740740740742</v>
       </c>
       <c r="Q11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q11*Main!$B$5)</f>
         <v>4.310185185185185E-2</v>
       </c>
       <c r="R11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R11*Main!$B$5)</f>
         <v>2.0900000000000002E-2</v>
       </c>
       <c r="S11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S11*Main!$B$5)</f>
         <v>2.1533333333333335E-2</v>
       </c>
       <c r="T11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T11*Main!$B$5)</f>
         <v>2.3327777777777774E-2</v>
       </c>
       <c r="U11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U11*Main!$B$5)</f>
         <v>4.310185185185185E-2</v>
       </c>
       <c r="V11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V11*Main!$B$5)</f>
         <v>6.639444444444445E-2</v>
       </c>
       <c r="W11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W11*Main!$B$5)</f>
         <v>8.8842592592592584E-3</v>
       </c>
       <c r="X11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X11*Main!$B$5)</f>
         <v>-6.7520370370370369E-2</v>
       </c>
       <c r="Y11" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y11*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y11*Main!$B$5)</f>
         <v>-0.11371851851851855</v>
       </c>
     </row>
@@ -38296,99 +38296,99 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B12*Main!$B$5)</f>
         <v>-0.10155483870967741</v>
       </c>
       <c r="C12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C12*Main!$B$5)</f>
         <v>-0.11240322580645162</v>
       </c>
       <c r="D12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D12*Main!$B$5)</f>
         <v>-0.11746451612903225</v>
       </c>
       <c r="E12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E12*Main!$B$5)</f>
         <v>-0.11943870967741936</v>
       </c>
       <c r="F12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F12*Main!$B$5)</f>
         <v>-0.11190967741935483</v>
       </c>
       <c r="G12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G12*Main!$B$5)</f>
         <v>-0.11746451612903226</v>
       </c>
       <c r="H12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H12*Main!$B$5)</f>
         <v>-9.0899999999999995E-2</v>
       </c>
       <c r="I12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I12*Main!$B$5)</f>
         <v>-7.5483870967741937E-2</v>
       </c>
       <c r="J12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J12*Main!$B$5)</f>
         <v>-6.3232258064516128E-2</v>
       </c>
       <c r="K12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K12*Main!$B$5)</f>
         <v>-4.8387096774193547E-2</v>
       </c>
       <c r="L12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L12*Main!$B$5)</f>
         <v>-5.0341935483870968E-2</v>
       </c>
       <c r="M12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M12*Main!$B$5)</f>
         <v>-5.1735483870967741E-2</v>
       </c>
       <c r="N12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N12*Main!$B$5)</f>
         <v>-6.1935483870967735E-2</v>
       </c>
       <c r="O12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O12*Main!$B$5)</f>
         <v>-6.5148387096774188E-2</v>
       </c>
       <c r="P12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P12*Main!$B$5)</f>
         <v>-7.3045161290322583E-2</v>
       </c>
       <c r="Q12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q12*Main!$B$5)</f>
         <v>-7.0896774193548381E-2</v>
       </c>
       <c r="R12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R12*Main!$B$5)</f>
         <v>-7.1129032258064523E-2</v>
       </c>
       <c r="S12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S12*Main!$B$5)</f>
         <v>-5.5161290322580644E-2</v>
       </c>
       <c r="T12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T12*Main!$B$5)</f>
         <v>-5.0825806451612908E-2</v>
       </c>
       <c r="U12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U12*Main!$B$5)</f>
         <v>-5.8238709677419363E-2</v>
       </c>
       <c r="V12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V12*Main!$B$5)</f>
         <v>-4.6916129032258058E-2</v>
       </c>
       <c r="W12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W12*Main!$B$5)</f>
         <v>-6.0000000000000012E-2</v>
       </c>
       <c r="X12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X12*Main!$B$5)</f>
         <v>-7.0083870967741921E-2</v>
       </c>
       <c r="Y12" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y12*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y12*Main!$B$5)</f>
         <v>-7.9954838709677428E-2</v>
       </c>
     </row>
@@ -38397,99 +38397,99 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B13*Main!$B$5)</f>
         <v>-0.19022072156965822</v>
       </c>
       <c r="C13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C13*Main!$B$5)</f>
         <v>-0.22810665035059144</v>
       </c>
       <c r="D13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D13*Main!$B$5)</f>
         <v>-0.26009382454520941</v>
       </c>
       <c r="E13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E13*Main!$B$5)</f>
         <v>-0.26094146952820318</v>
       </c>
       <c r="F13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F13*Main!$B$5)</f>
         <v>-0.26514895875141192</v>
       </c>
       <c r="G13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G13*Main!$B$5)</f>
         <v>-0.26819127548567839</v>
       </c>
       <c r="H13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H13*Main!$B$5)</f>
         <v>-0.20787778141108293</v>
       </c>
       <c r="I13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I13*Main!$B$5)</f>
         <v>6.1112238500437054E-3</v>
       </c>
       <c r="J13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J13*Main!$B$5)</f>
         <v>8.620554116121884E-2</v>
       </c>
       <c r="K13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K13*Main!$B$5)</f>
         <v>0.12265205851364452</v>
       </c>
       <c r="L13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L13*Main!$B$5)</f>
         <v>9.8544375404108583E-2</v>
       </c>
       <c r="M13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M13*Main!$B$5)</f>
         <v>0.12898692937925657</v>
       </c>
       <c r="N13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N13*Main!$B$5)</f>
         <v>0.1260102965180559</v>
       </c>
       <c r="O13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O13*Main!$B$5)</f>
         <v>0.11066933853792792</v>
       </c>
       <c r="P13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P13*Main!$B$5)</f>
         <v>5.1600947157816553E-2</v>
       </c>
       <c r="Q13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q13*Main!$B$5)</f>
         <v>3.4152891825121039E-2</v>
       </c>
       <c r="R13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R13*Main!$B$5)</f>
         <v>2.6282535181184043E-2</v>
       </c>
       <c r="S13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S13*Main!$B$5)</f>
         <v>3.1378361434531953E-2</v>
       </c>
       <c r="T13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T13*Main!$B$5)</f>
         <v>2.7165410667100195E-2</v>
       </c>
       <c r="U13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U13*Main!$B$5)</f>
         <v>2.7868809967008211E-2</v>
       </c>
       <c r="V13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V13*Main!$B$5)</f>
         <v>6.5147540274141116E-2</v>
       </c>
       <c r="W13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W13*Main!$B$5)</f>
         <v>9.8574768434587048E-4</v>
       </c>
       <c r="X13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X13*Main!$B$5)</f>
         <v>-0.10886886839026456</v>
       </c>
       <c r="Y13" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y13*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y13*Main!$B$5)</f>
         <v>-0.15529733119209349</v>
       </c>
     </row>
@@ -38498,99 +38498,99 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B14*Main!$B$5)</f>
         <v>6.9577777777777794E-2</v>
       </c>
       <c r="C14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C14*Main!$B$5)</f>
         <v>6.4607936507936503E-2</v>
       </c>
       <c r="D14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D14*Main!$B$5)</f>
         <v>4.9353968253968261E-2</v>
       </c>
       <c r="E14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E14*Main!$B$5)</f>
         <v>4.47531746031746E-2</v>
       </c>
       <c r="F14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F14*Main!$B$5)</f>
         <v>4.0185185185185185E-2</v>
       </c>
       <c r="G14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G14*Main!$B$5)</f>
         <v>5.0436507936507932E-2</v>
       </c>
       <c r="H14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H14*Main!$B$5)</f>
         <v>0.16731798941798942</v>
       </c>
       <c r="I14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I14*Main!$B$5)</f>
         <v>0.22101851851851853</v>
       </c>
       <c r="J14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J14*Main!$B$5)</f>
         <v>0.28901349206349208</v>
       </c>
       <c r="K14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K14*Main!$B$5)</f>
         <v>0.27022486772486776</v>
       </c>
       <c r="L14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L14*Main!$B$5)</f>
         <v>0.26630066137566138</v>
       </c>
       <c r="M14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M14*Main!$B$5)</f>
         <v>0.25517592592592592</v>
       </c>
       <c r="N14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N14*Main!$B$5)</f>
         <v>0.28170634920634924</v>
       </c>
       <c r="O14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O14*Main!$B$5)</f>
         <v>0.26091666666666674</v>
       </c>
       <c r="P14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P14*Main!$B$5)</f>
         <v>0.23267222222222222</v>
       </c>
       <c r="Q14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q14*Main!$B$5)</f>
         <v>0.21840238095238093</v>
       </c>
       <c r="R14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R14*Main!$B$5)</f>
         <v>0.21596666666666672</v>
       </c>
       <c r="S14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S14*Main!$B$5)</f>
         <v>0.22543888888888891</v>
       </c>
       <c r="T14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T14*Main!$B$5)</f>
         <v>0.18779603174603171</v>
       </c>
       <c r="U14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U14*Main!$B$5)</f>
         <v>0.16475925925925924</v>
       </c>
       <c r="V14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V14*Main!$B$5)</f>
         <v>0.18194047619047615</v>
       </c>
       <c r="W14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W14*Main!$B$5)</f>
         <v>0.12756746031746036</v>
       </c>
       <c r="X14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X14*Main!$B$5)</f>
         <v>5.494708994708996E-2</v>
       </c>
       <c r="Y14" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y14*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y14*Main!$B$5)</f>
         <v>5.7866666666666663E-2</v>
       </c>
     </row>
@@ -38599,99 +38599,99 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B15*Main!$B$5)</f>
         <v>0.58228333333333326</v>
       </c>
       <c r="C15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C15*Main!$B$5)</f>
         <v>0.58124999999999993</v>
       </c>
       <c r="D15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D15*Main!$B$5)</f>
         <v>0.6070833333333332</v>
       </c>
       <c r="E15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E15*Main!$B$5)</f>
         <v>0.62</v>
       </c>
       <c r="F15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F15*Main!$B$5)</f>
         <v>0.63239999999999996</v>
       </c>
       <c r="G15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G15*Main!$B$5)</f>
         <v>0.58822499999999989</v>
       </c>
       <c r="H15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H15*Main!$B$5)</f>
         <v>0.54017500000000007</v>
       </c>
       <c r="I15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I15*Main!$B$5)</f>
         <v>0.49871250000000011</v>
       </c>
       <c r="J15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J15*Main!$B$5)</f>
         <v>0.3952500000000001</v>
       </c>
       <c r="K15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K15*Main!$B$5)</f>
         <v>0.26853749999999998</v>
       </c>
       <c r="L15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L15*Main!$B$5)</f>
         <v>0.30302499999999999</v>
       </c>
       <c r="M15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M15*Main!$B$5)</f>
         <v>0.36528333333333335</v>
       </c>
       <c r="N15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N15*Main!$B$5)</f>
         <v>0.26091666666666669</v>
       </c>
       <c r="O15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O15*Main!$B$5)</f>
         <v>0.35443333333333338</v>
       </c>
       <c r="P15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P15*Main!$B$5)</f>
         <v>0.40506666666666674</v>
       </c>
       <c r="Q15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q15*Main!$B$5)</f>
         <v>0.41333333333333339</v>
       </c>
       <c r="R15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R15*Main!$B$5)</f>
         <v>0.41333333333333339</v>
       </c>
       <c r="S15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S15*Main!$B$5)</f>
         <v>0.40442083333333334</v>
       </c>
       <c r="T15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T15*Main!$B$5)</f>
         <v>0.37458333333333338</v>
       </c>
       <c r="U15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U15*Main!$B$5)</f>
         <v>0.45569999999999999</v>
       </c>
       <c r="V15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V15*Main!$B$5)</f>
         <v>0.4810166666666667</v>
       </c>
       <c r="W15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W15*Main!$B$5)</f>
         <v>0.55541666666666678</v>
       </c>
       <c r="X15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X15*Main!$B$5)</f>
         <v>0.51666666666666672</v>
       </c>
       <c r="Y15" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y15*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y15*Main!$B$5)</f>
         <v>0.54017500000000007</v>
       </c>
     </row>
@@ -38700,99 +38700,99 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!B16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!B16*Main!$B$5)</f>
         <v>4.429530201342282E-2</v>
       </c>
       <c r="C16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!C16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!C16*Main!$B$5)</f>
         <v>4.794765100671141E-2</v>
       </c>
       <c r="D16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!D16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!D16*Main!$B$5)</f>
         <v>4.7029530201342276E-2</v>
       </c>
       <c r="E16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!E16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!E16*Main!$B$5)</f>
         <v>4.6568456375838924E-2</v>
       </c>
       <c r="F16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!F16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!F16*Main!$B$5)</f>
         <v>4.5551677852348996E-2</v>
       </c>
       <c r="G16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!G16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!G16*Main!$B$5)</f>
         <v>4.7240939597315429E-2</v>
       </c>
       <c r="H16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!H16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!H16*Main!$B$5)</f>
         <v>4.8144966442953019E-2</v>
       </c>
       <c r="I16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!I16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!I16*Main!$B$5)</f>
         <v>9.1093288590604032E-2</v>
       </c>
       <c r="J16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!J16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!J16*Main!$B$5)</f>
         <v>0.10818523489932887</v>
       </c>
       <c r="K16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!K16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!K16*Main!$B$5)</f>
         <v>0.10514899328859058</v>
       </c>
       <c r="L16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!L16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!L16*Main!$B$5)</f>
         <v>9.9664429530201354E-2</v>
       </c>
       <c r="M16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!M16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!M16*Main!$B$5)</f>
         <v>0.10147449664429531</v>
       </c>
       <c r="N16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!N16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!N16*Main!$B$5)</f>
         <v>0.10584362416107382</v>
       </c>
       <c r="O16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!O16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!O16*Main!$B$5)</f>
         <v>0.10369127516778526</v>
       </c>
       <c r="P16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!P16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!P16*Main!$B$5)</f>
         <v>7.341140939597314E-2</v>
       </c>
       <c r="Q16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Q16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Q16*Main!$B$5)</f>
         <v>9.6934228187919455E-2</v>
       </c>
       <c r="R16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!R16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!R16*Main!$B$5)</f>
         <v>9.5279194630872477E-2</v>
       </c>
       <c r="S16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!S16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!S16*Main!$B$5)</f>
         <v>9.020134228187919E-2</v>
       </c>
       <c r="T16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!T16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!T16*Main!$B$5)</f>
         <v>7.0046979865771811E-2</v>
       </c>
       <c r="U16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!U16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!U16*Main!$B$5)</f>
         <v>6.4832214765100676E-2</v>
       </c>
       <c r="V16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!V16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!V16*Main!$B$5)</f>
         <v>6.6692617449664426E-2</v>
       </c>
       <c r="W16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!W16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!W16*Main!$B$5)</f>
         <v>6.8255033557046971E-2</v>
       </c>
       <c r="X16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!X16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!X16*Main!$B$5)</f>
         <v>4.805637583892617E-2</v>
       </c>
       <c r="Y16" s="2">
-        <f ca="1">('[1]Qc, Summer, S3'!Y16*Main!$B$5)</f>
+        <f>('[1]Qc, Summer, S3'!Y16*Main!$B$5)</f>
         <v>4.6711409395973159E-2</v>
       </c>
     </row>
@@ -55430,99 +55430,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B2*Main!$B$5)</f>
         <v>5.8042951457093914E-2</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C2*Main!$B$5)</f>
         <v>4.1008325887950878E-2</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D2*Main!$B$5)</f>
         <v>3.4845846353969333E-2</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E2*Main!$B$5)</f>
         <v>4.5117504486315331E-2</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F2*Main!$B$5)</f>
         <v>3.9235978830311699E-2</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G2*Main!$B$5)</f>
         <v>3.1619885033647502E-2</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H2*Main!$B$5)</f>
         <v>2.5897982425744915E-2</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I2*Main!$B$5)</f>
         <v>9.2348356616746771E-2</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J2*Main!$B$5)</f>
         <v>9.8508617086819433E-2</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K2*Main!$B$5)</f>
         <v>8.2006288225121488E-2</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L2*Main!$B$5)</f>
         <v>9.4578195818135397E-2</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M2*Main!$B$5)</f>
         <v>9.1468966434305396E-2</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N2*Main!$B$5)</f>
         <v>9.1871959119124547E-2</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O2*Main!$B$5)</f>
         <v>7.8820975981106933E-2</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P2*Main!$B$5)</f>
         <v>4.7727263249087035E-2</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q2*Main!$B$5)</f>
         <v>7.3231710640666012E-2</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R2*Main!$B$5)</f>
         <v>8.7830143823025439E-2</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S2*Main!$B$5)</f>
         <v>8.1951026881657327E-2</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T2*Main!$B$5)</f>
         <v>5.8444573481281549E-2</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U2*Main!$B$5)</f>
         <v>6.1845428459208623E-2</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V2*Main!$B$5)</f>
         <v>5.5909389158072233E-2</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W2*Main!$B$5)</f>
         <v>3.5731984348915405E-2</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X2*Main!$B$5)</f>
         <v>2.8224177630398261E-2</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y2*Main!$B$5)</f>
         <v>2.8673873105614967E-2</v>
       </c>
     </row>
@@ -55531,99 +55531,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B3*Main!$B$5)</f>
         <v>-0.2267658235351134</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C3*Main!$B$5)</f>
         <v>-0.22218151146077342</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D3*Main!$B$5)</f>
         <v>-0.2376310274321331</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E3*Main!$B$5)</f>
         <v>-0.24608047917502174</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F3*Main!$B$5)</f>
         <v>-0.23889125083911389</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G3*Main!$B$5)</f>
         <v>-0.22146093918059243</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H3*Main!$B$5)</f>
         <v>-0.13761518786242241</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I3*Main!$B$5)</f>
         <v>-2.7533325388100306E-2</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J3*Main!$B$5)</f>
         <v>-2.8717813698878904E-2</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K3*Main!$B$5)</f>
         <v>-1.9223725510755973E-2</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L3*Main!$B$5)</f>
         <v>-1.7103474994495989E-2</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M3*Main!$B$5)</f>
         <v>-7.7087462692536773E-2</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N3*Main!$B$5)</f>
         <v>-0.10930425296973352</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O3*Main!$B$5)</f>
         <v>-0.14455740525444744</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P3*Main!$B$5)</f>
         <v>-0.14489111652684136</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q3*Main!$B$5)</f>
         <v>-0.14589687718111058</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R3*Main!$B$5)</f>
         <v>-0.11243805758510318</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S3*Main!$B$5)</f>
         <v>3.8075044347372071E-2</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T3*Main!$B$5)</f>
         <v>-5.3134880870148952E-3</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U3*Main!$B$5)</f>
         <v>-6.2722014312949936E-2</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V3*Main!$B$5)</f>
         <v>-0.11511275654905198</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W3*Main!$B$5)</f>
         <v>-0.14990704280048381</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X3*Main!$B$5)</f>
         <v>-0.16773291491141878</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y3*Main!$B$5)</f>
         <v>-0.19014471764515542</v>
       </c>
     </row>
@@ -55632,99 +55632,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B4*Main!$B$5)</f>
         <v>-0.79061845824680066</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C4*Main!$B$5)</f>
         <v>-0.88789918696744063</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D4*Main!$B$5)</f>
         <v>-0.87759152727039491</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E4*Main!$B$5)</f>
         <v>-0.87460118740121207</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F4*Main!$B$5)</f>
         <v>-0.89283518888127389</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G4*Main!$B$5)</f>
         <v>-0.74555560865339399</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H4*Main!$B$5)</f>
         <v>-2.6673553559025474E-2</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I4*Main!$B$5)</f>
         <v>0.38061497938815114</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J4*Main!$B$5)</f>
         <v>0.48990388458520295</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K4*Main!$B$5)</f>
         <v>0.33458686639415341</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L4*Main!$B$5)</f>
         <v>0.1955723054066954</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M4*Main!$B$5)</f>
         <v>0.38400753398614784</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N4*Main!$B$5)</f>
         <v>0.25201903276284293</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O4*Main!$B$5)</f>
         <v>7.571124231798837E-2</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P4*Main!$B$5)</f>
         <v>-0.2965657435347443</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q4*Main!$B$5)</f>
         <v>-0.29965886214157511</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R4*Main!$B$5)</f>
         <v>-0.24929060112403051</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S4*Main!$B$5)</f>
         <v>-0.12206318921411476</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T4*Main!$B$5)</f>
         <v>-0.29449472154838685</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U4*Main!$B$5)</f>
         <v>-0.16950707399000783</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V4*Main!$B$5)</f>
         <v>-0.23742566623982939</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W4*Main!$B$5)</f>
         <v>-0.38599995929058717</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X4*Main!$B$5)</f>
         <v>-0.62830628670059019</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y4*Main!$B$5)</f>
         <v>-0.70925607249222511</v>
       </c>
     </row>
@@ -55733,99 +55733,99 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B5*Main!$B$5)</f>
         <v>-2.1432335953677839</v>
       </c>
       <c r="C5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C5*Main!$B$5)</f>
         <v>-2.1428452565828615</v>
       </c>
       <c r="D5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D5*Main!$B$5)</f>
         <v>-2.2084412405664229</v>
       </c>
       <c r="E5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E5*Main!$B$5)</f>
         <v>-2.205718743148112</v>
       </c>
       <c r="F5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F5*Main!$B$5)</f>
         <v>-2.1712283601393811</v>
       </c>
       <c r="G5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G5*Main!$B$5)</f>
         <v>-1.9850451840526793</v>
       </c>
       <c r="H5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H5*Main!$B$5)</f>
         <v>-1.7749595861152849</v>
       </c>
       <c r="I5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I5*Main!$B$5)</f>
         <v>-1.6365782472948529</v>
       </c>
       <c r="J5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J5*Main!$B$5)</f>
         <v>-1.6679914913826435</v>
       </c>
       <c r="K5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K5*Main!$B$5)</f>
         <v>-1.8661149993657153</v>
       </c>
       <c r="L5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L5*Main!$B$5)</f>
         <v>-1.931872846056883</v>
       </c>
       <c r="M5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M5*Main!$B$5)</f>
         <v>-2.0868666116623569</v>
       </c>
       <c r="N5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N5*Main!$B$5)</f>
         <v>-2.0686489446789214</v>
       </c>
       <c r="O5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O5*Main!$B$5)</f>
         <v>-2.0645535759313578</v>
       </c>
       <c r="P5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P5*Main!$B$5)</f>
         <v>-2.1677130342327406</v>
       </c>
       <c r="Q5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q5*Main!$B$5)</f>
         <v>-2.061812157587116</v>
       </c>
       <c r="R5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R5*Main!$B$5)</f>
         <v>-1.7454520982006785</v>
       </c>
       <c r="S5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S5*Main!$B$5)</f>
         <v>-1.0298991549827885</v>
       </c>
       <c r="T5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T5*Main!$B$5)</f>
         <v>-1.3418287493035084</v>
       </c>
       <c r="U5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U5*Main!$B$5)</f>
         <v>-1.6602043299508793</v>
       </c>
       <c r="V5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V5*Main!$B$5)</f>
         <v>-1.7872508288795923</v>
       </c>
       <c r="W5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W5*Main!$B$5)</f>
         <v>-1.835226890216801</v>
       </c>
       <c r="X5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X5*Main!$B$5)</f>
         <v>-1.9203986458524602</v>
       </c>
       <c r="Y5" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y5*Main!$B$5)</f>
         <v>-1.9493883929730007</v>
       </c>
     </row>
@@ -55834,99 +55834,99 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B6*Main!$B$5)</f>
         <v>-0.44617580112938016</v>
       </c>
       <c r="C6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C6*Main!$B$5)</f>
         <v>-0.47796756734077378</v>
       </c>
       <c r="D6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D6*Main!$B$5)</f>
         <v>-0.49827737161198293</v>
       </c>
       <c r="E6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E6*Main!$B$5)</f>
         <v>-0.50005438134597635</v>
       </c>
       <c r="F6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F6*Main!$B$5)</f>
         <v>-0.48916402173859391</v>
       </c>
       <c r="G6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G6*Main!$B$5)</f>
         <v>-0.41644990118540498</v>
       </c>
       <c r="H6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H6*Main!$B$5)</f>
         <v>-0.3142364898883947</v>
       </c>
       <c r="I6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I6*Main!$B$5)</f>
         <v>-0.25938652764957626</v>
       </c>
       <c r="J6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J6*Main!$B$5)</f>
         <v>-0.24729684900833707</v>
       </c>
       <c r="K6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K6*Main!$B$5)</f>
         <v>-0.20714917054973372</v>
       </c>
       <c r="L6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L6*Main!$B$5)</f>
         <v>-0.20707079666220771</v>
       </c>
       <c r="M6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M6*Main!$B$5)</f>
         <v>-0.20068367606335982</v>
       </c>
       <c r="N6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N6*Main!$B$5)</f>
         <v>-0.24396629382641705</v>
       </c>
       <c r="O6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O6*Main!$B$5)</f>
         <v>-0.26516254676956791</v>
       </c>
       <c r="P6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P6*Main!$B$5)</f>
         <v>-0.25547733033382858</v>
       </c>
       <c r="Q6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q6*Main!$B$5)</f>
         <v>-0.32302390492573635</v>
       </c>
       <c r="R6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R6*Main!$B$5)</f>
         <v>-0.27495846948748448</v>
       </c>
       <c r="S6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S6*Main!$B$5)</f>
         <v>-0.1378456965210352</v>
       </c>
       <c r="T6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T6*Main!$B$5)</f>
         <v>-0.1632320708429382</v>
       </c>
       <c r="U6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U6*Main!$B$5)</f>
         <v>-0.20502721010889044</v>
       </c>
       <c r="V6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V6*Main!$B$5)</f>
         <v>-0.22138947018347491</v>
       </c>
       <c r="W6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W6*Main!$B$5)</f>
         <v>-0.29319597760120242</v>
       </c>
       <c r="X6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X6*Main!$B$5)</f>
         <v>-0.32104093756324381</v>
       </c>
       <c r="Y6" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y6*Main!$B$5)</f>
         <v>-0.34257072879080303</v>
       </c>
     </row>
@@ -55935,99 +55935,99 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B7*Main!$B$5)</f>
         <v>3.4651439621171759E-2</v>
       </c>
       <c r="C7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C7*Main!$B$5)</f>
         <v>2.7647803936042169E-2</v>
       </c>
       <c r="D7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D7*Main!$B$5)</f>
         <v>2.0346599743569203E-2</v>
       </c>
       <c r="E7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E7*Main!$B$5)</f>
         <v>3.0924164251335002E-2</v>
       </c>
       <c r="F7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F7*Main!$B$5)</f>
         <v>2.4639512500731563E-2</v>
       </c>
       <c r="G7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G7*Main!$B$5)</f>
         <v>3.5498168983880536E-2</v>
       </c>
       <c r="H7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H7*Main!$B$5)</f>
         <v>4.7827252002974205E-2</v>
       </c>
       <c r="I7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I7*Main!$B$5)</f>
         <v>9.2216638113166882E-2</v>
       </c>
       <c r="J7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J7*Main!$B$5)</f>
         <v>0.10945401999659217</v>
       </c>
       <c r="K7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K7*Main!$B$5)</f>
         <v>0.11389543985527231</v>
       </c>
       <c r="L7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L7*Main!$B$5)</f>
         <v>0.10704544401250063</v>
       </c>
       <c r="M7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M7*Main!$B$5)</f>
         <v>0.11531728864921177</v>
       </c>
       <c r="N7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N7*Main!$B$5)</f>
         <v>0.11333827045048589</v>
       </c>
       <c r="O7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O7*Main!$B$5)</f>
         <v>0.11202412220394002</v>
       </c>
       <c r="P7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P7*Main!$B$5)</f>
         <v>9.3285780400299001E-2</v>
       </c>
       <c r="Q7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q7*Main!$B$5)</f>
         <v>8.8735407858651638E-2</v>
       </c>
       <c r="R7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R7*Main!$B$5)</f>
         <v>7.7893943577017455E-2</v>
       </c>
       <c r="S7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S7*Main!$B$5)</f>
         <v>8.5213356040798285E-2</v>
       </c>
       <c r="T7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T7*Main!$B$5)</f>
         <v>7.0086941098445543E-2</v>
       </c>
       <c r="U7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U7*Main!$B$5)</f>
         <v>7.5376676459008973E-2</v>
       </c>
       <c r="V7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V7*Main!$B$5)</f>
         <v>6.2467485032358369E-2</v>
       </c>
       <c r="W7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W7*Main!$B$5)</f>
         <v>6.5756804994029791E-2</v>
       </c>
       <c r="X7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X7*Main!$B$5)</f>
         <v>4.0822153146244385E-2</v>
       </c>
       <c r="Y7" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y7*Main!$B$5)</f>
         <v>4.3192695933410061E-2</v>
       </c>
     </row>
@@ -56036,99 +56036,99 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B8*Main!$B$5)</f>
         <v>-0.53305557531588388</v>
       </c>
       <c r="C8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C8*Main!$B$5)</f>
         <v>-0.52722701193300192</v>
       </c>
       <c r="D8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D8*Main!$B$5)</f>
         <v>-0.54922987487490271</v>
       </c>
       <c r="E8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E8*Main!$B$5)</f>
         <v>-0.54809550125860773</v>
       </c>
       <c r="F8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F8*Main!$B$5)</f>
         <v>-0.57469341817974862</v>
       </c>
       <c r="G8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G8*Main!$B$5)</f>
         <v>-0.51980732489148984</v>
       </c>
       <c r="H8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H8*Main!$B$5)</f>
         <v>-0.44606322672703724</v>
       </c>
       <c r="I8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I8*Main!$B$5)</f>
         <v>-0.22706837617411055</v>
       </c>
       <c r="J8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J8*Main!$B$5)</f>
         <v>-0.11709890016712031</v>
       </c>
       <c r="K8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K8*Main!$B$5)</f>
         <v>-0.10443118411135432</v>
       </c>
       <c r="L8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L8*Main!$B$5)</f>
         <v>-8.2614107249191146E-2</v>
       </c>
       <c r="M8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M8*Main!$B$5)</f>
         <v>-2.694705251763161E-2</v>
       </c>
       <c r="N8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N8*Main!$B$5)</f>
         <v>-0.11051346557446227</v>
       </c>
       <c r="O8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O8*Main!$B$5)</f>
         <v>-0.11416999684393822</v>
       </c>
       <c r="P8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P8*Main!$B$5)</f>
         <v>-0.21439599143716548</v>
       </c>
       <c r="Q8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q8*Main!$B$5)</f>
         <v>-0.30638001756567873</v>
       </c>
       <c r="R8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R8*Main!$B$5)</f>
         <v>-0.26567474753240733</v>
       </c>
       <c r="S8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S8*Main!$B$5)</f>
         <v>-0.29936015869317179</v>
       </c>
       <c r="T8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T8*Main!$B$5)</f>
         <v>-0.34684626403137531</v>
       </c>
       <c r="U8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U8*Main!$B$5)</f>
         <v>-0.32320858465289914</v>
       </c>
       <c r="V8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V8*Main!$B$5)</f>
         <v>-0.3642987699687274</v>
       </c>
       <c r="W8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W8*Main!$B$5)</f>
         <v>-0.43384086547403733</v>
       </c>
       <c r="X8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X8*Main!$B$5)</f>
         <v>-0.49936906852106838</v>
       </c>
       <c r="Y8" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y8*Main!$B$5)</f>
         <v>-0.49179543306234125</v>
       </c>
     </row>
@@ -56137,99 +56137,99 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B9*Main!$B$5)</f>
         <v>-0.30946799406868919</v>
       </c>
       <c r="C9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C9*Main!$B$5)</f>
         <v>-0.3036180880453252</v>
       </c>
       <c r="D9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D9*Main!$B$5)</f>
         <v>-0.31167306080842205</v>
       </c>
       <c r="E9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E9*Main!$B$5)</f>
         <v>-0.31430662127549464</v>
       </c>
       <c r="F9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F9*Main!$B$5)</f>
         <v>-0.30179123671956815</v>
       </c>
       <c r="G9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G9*Main!$B$5)</f>
         <v>-0.28380474985881649</v>
       </c>
       <c r="H9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H9*Main!$B$5)</f>
         <v>-0.22580739559053337</v>
       </c>
       <c r="I9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I9*Main!$B$5)</f>
         <v>-0.1796395847779195</v>
       </c>
       <c r="J9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J9*Main!$B$5)</f>
         <v>-0.1626284582218839</v>
       </c>
       <c r="K9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K9*Main!$B$5)</f>
         <v>-0.18759099921087091</v>
       </c>
       <c r="L9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L9*Main!$B$5)</f>
         <v>-0.17187734931482171</v>
       </c>
       <c r="M9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M9*Main!$B$5)</f>
         <v>-0.15827626576073001</v>
       </c>
       <c r="N9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N9*Main!$B$5)</f>
         <v>-0.16608140133074556</v>
       </c>
       <c r="O9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O9*Main!$B$5)</f>
         <v>-0.18531517270789583</v>
       </c>
       <c r="P9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P9*Main!$B$5)</f>
         <v>-0.22738954788411506</v>
       </c>
       <c r="Q9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q9*Main!$B$5)</f>
         <v>-0.24723279684410215</v>
       </c>
       <c r="R9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R9*Main!$B$5)</f>
         <v>-0.24411206817451833</v>
       </c>
       <c r="S9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S9*Main!$B$5)</f>
         <v>-0.24072672428739661</v>
       </c>
       <c r="T9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T9*Main!$B$5)</f>
         <v>-0.25886573662865664</v>
       </c>
       <c r="U9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U9*Main!$B$5)</f>
         <v>-0.27031186337971508</v>
       </c>
       <c r="V9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V9*Main!$B$5)</f>
         <v>-0.26685365082775897</v>
       </c>
       <c r="W9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W9*Main!$B$5)</f>
         <v>-0.27467915702502627</v>
       </c>
       <c r="X9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X9*Main!$B$5)</f>
         <v>-0.29535706026122827</v>
       </c>
       <c r="Y9" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y9*Main!$B$5)</f>
         <v>-0.29216275117367485</v>
       </c>
     </row>
@@ -56238,99 +56238,99 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B10*Main!$B$5)</f>
         <v>-0.36679960389689847</v>
       </c>
       <c r="C10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C10*Main!$B$5)</f>
         <v>-0.39320176785141314</v>
       </c>
       <c r="D10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D10*Main!$B$5)</f>
         <v>-0.40590889791916557</v>
       </c>
       <c r="E10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E10*Main!$B$5)</f>
         <v>-0.40531509101567698</v>
       </c>
       <c r="F10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F10*Main!$B$5)</f>
         <v>-0.40696790679261591</v>
       </c>
       <c r="G10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G10*Main!$B$5)</f>
         <v>-0.35694555646553539</v>
       </c>
       <c r="H10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H10*Main!$B$5)</f>
         <v>-0.21542971854674786</v>
       </c>
       <c r="I10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I10*Main!$B$5)</f>
         <v>-2.3500692081899845E-2</v>
       </c>
       <c r="J10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J10*Main!$B$5)</f>
         <v>1.3036076268888612E-2</v>
       </c>
       <c r="K10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K10*Main!$B$5)</f>
         <v>-7.462753185252133E-3</v>
       </c>
       <c r="L10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L10*Main!$B$5)</f>
         <v>-1.1213328006671384E-2</v>
       </c>
       <c r="M10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M10*Main!$B$5)</f>
         <v>-5.3798984743526007E-3</v>
       </c>
       <c r="N10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N10*Main!$B$5)</f>
         <v>-4.7928173692871313E-2</v>
       </c>
       <c r="O10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O10*Main!$B$5)</f>
         <v>-8.6011635215210255E-2</v>
       </c>
       <c r="P10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P10*Main!$B$5)</f>
         <v>-0.17560513574930767</v>
       </c>
       <c r="Q10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q10*Main!$B$5)</f>
         <v>-0.1830810517135413</v>
       </c>
       <c r="R10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R10*Main!$B$5)</f>
         <v>-0.14676005633018196</v>
       </c>
       <c r="S10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S10*Main!$B$5)</f>
         <v>-4.5345632088135343E-2</v>
       </c>
       <c r="T10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T10*Main!$B$5)</f>
         <v>-0.12115194257737547</v>
       </c>
       <c r="U10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U10*Main!$B$5)</f>
         <v>-0.14396270164501229</v>
       </c>
       <c r="V10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V10*Main!$B$5)</f>
         <v>-0.18665324716585582</v>
       </c>
       <c r="W10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W10*Main!$B$5)</f>
         <v>-0.24168459761318356</v>
       </c>
       <c r="X10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X10*Main!$B$5)</f>
         <v>-0.31238347623281987</v>
       </c>
       <c r="Y10" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y10*Main!$B$5)</f>
         <v>-0.31915724279853541</v>
       </c>
     </row>
@@ -56339,99 +56339,99 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B11*Main!$B$5)</f>
         <v>-0.18013063784996319</v>
       </c>
       <c r="C11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C11*Main!$B$5)</f>
         <v>-0.18725573657074024</v>
       </c>
       <c r="D11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D11*Main!$B$5)</f>
         <v>-0.18940874287379211</v>
       </c>
       <c r="E11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E11*Main!$B$5)</f>
         <v>-0.18887638526631179</v>
       </c>
       <c r="F11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F11*Main!$B$5)</f>
         <v>-0.19021568462417021</v>
       </c>
       <c r="G11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G11*Main!$B$5)</f>
         <v>-0.17608377341442102</v>
       </c>
       <c r="H11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H11*Main!$B$5)</f>
         <v>-0.12806842956998765</v>
       </c>
       <c r="I11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I11*Main!$B$5)</f>
         <v>-0.10772587186913632</v>
       </c>
       <c r="J11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J11*Main!$B$5)</f>
         <v>-6.8750542500425713E-2</v>
       </c>
       <c r="K11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K11*Main!$B$5)</f>
         <v>-3.8908744329504676E-2</v>
       </c>
       <c r="L11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L11*Main!$B$5)</f>
         <v>-5.0284831816434422E-2</v>
       </c>
       <c r="M11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M11*Main!$B$5)</f>
         <v>-3.8820504814705024E-2</v>
       </c>
       <c r="N11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N11*Main!$B$5)</f>
         <v>-4.6758834781687859E-2</v>
       </c>
       <c r="O11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O11*Main!$B$5)</f>
         <v>-6.6952364377827006E-2</v>
       </c>
       <c r="P11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P11*Main!$B$5)</f>
         <v>-8.6231596618170786E-2</v>
       </c>
       <c r="Q11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q11*Main!$B$5)</f>
         <v>-8.7197038721366638E-2</v>
       </c>
       <c r="R11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R11*Main!$B$5)</f>
         <v>-9.1456461948261111E-2</v>
       </c>
       <c r="S11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S11*Main!$B$5)</f>
         <v>-5.9305198697793639E-2</v>
       </c>
       <c r="T11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T11*Main!$B$5)</f>
         <v>-7.3329166157595063E-2</v>
       </c>
       <c r="U11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U11*Main!$B$5)</f>
         <v>-9.2726123865075907E-2</v>
       </c>
       <c r="V11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V11*Main!$B$5)</f>
         <v>-0.10904628476494529</v>
       </c>
       <c r="W11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W11*Main!$B$5)</f>
         <v>-0.13602223800731214</v>
       </c>
       <c r="X11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X11*Main!$B$5)</f>
         <v>-0.16661562789904968</v>
       </c>
       <c r="Y11" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y11*Main!$B$5)</f>
         <v>-0.17650215060442501</v>
       </c>
     </row>
@@ -56440,99 +56440,99 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B12*Main!$B$5)</f>
         <v>-0.11505496633656204</v>
       </c>
       <c r="C12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C12*Main!$B$5)</f>
         <v>-0.1138625967560139</v>
       </c>
       <c r="D12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D12*Main!$B$5)</f>
         <v>-0.1182977818295792</v>
       </c>
       <c r="E12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E12*Main!$B$5)</f>
         <v>-0.11816708758521338</v>
       </c>
       <c r="F12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F12*Main!$B$5)</f>
         <v>-0.1166760118620673</v>
       </c>
       <c r="G12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G12*Main!$B$5)</f>
         <v>-9.1362820978017803E-2</v>
       </c>
       <c r="H12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H12*Main!$B$5)</f>
         <v>-7.2151626513649203E-2</v>
       </c>
       <c r="I12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I12*Main!$B$5)</f>
         <v>-6.383471878823678E-2</v>
       </c>
       <c r="J12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J12*Main!$B$5)</f>
         <v>-4.5243993683208063E-2</v>
       </c>
       <c r="K12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K12*Main!$B$5)</f>
         <v>-2.926784885508146E-2</v>
       </c>
       <c r="L12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L12*Main!$B$5)</f>
         <v>-6.5391465339015215E-2</v>
       </c>
       <c r="M12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M12*Main!$B$5)</f>
         <v>-6.2922643408656651E-2</v>
       </c>
       <c r="N12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N12*Main!$B$5)</f>
         <v>-7.0208320987059009E-2</v>
       </c>
       <c r="O12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O12*Main!$B$5)</f>
         <v>-7.0064720355379806E-2</v>
       </c>
       <c r="P12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P12*Main!$B$5)</f>
         <v>-7.7954293610275616E-2</v>
       </c>
       <c r="Q12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q12*Main!$B$5)</f>
         <v>-8.0392688192782683E-2</v>
       </c>
       <c r="R12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R12*Main!$B$5)</f>
         <v>-6.6463026755953641E-2</v>
       </c>
       <c r="S12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S12*Main!$B$5)</f>
         <v>-4.3997680266655417E-2</v>
       </c>
       <c r="T12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T12*Main!$B$5)</f>
         <v>-6.0104272393569871E-2</v>
       </c>
       <c r="U12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U12*Main!$B$5)</f>
         <v>-7.3485747436817003E-2</v>
       </c>
       <c r="V12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V12*Main!$B$5)</f>
         <v>-7.6625923619859315E-2</v>
       </c>
       <c r="W12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W12*Main!$B$5)</f>
         <v>-8.005470136883916E-2</v>
       </c>
       <c r="X12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X12*Main!$B$5)</f>
         <v>-8.6443865900775727E-2</v>
       </c>
       <c r="Y12" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y12*Main!$B$5)</f>
         <v>-9.1688418149927342E-2</v>
       </c>
     </row>
@@ -56541,99 +56541,99 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B13*Main!$B$5)</f>
         <v>-2.8639048151554887E-2</v>
       </c>
       <c r="C13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C13*Main!$B$5)</f>
         <v>5.0012479250413647E-2</v>
       </c>
       <c r="D13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D13*Main!$B$5)</f>
         <v>0.10165286847108733</v>
       </c>
       <c r="E13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E13*Main!$B$5)</f>
         <v>8.7899729104484944E-2</v>
       </c>
       <c r="F13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F13*Main!$B$5)</f>
         <v>7.1134101325023652E-2</v>
       </c>
       <c r="G13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G13*Main!$B$5)</f>
         <v>-7.0254467921161856E-2</v>
       </c>
       <c r="H13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H13*Main!$B$5)</f>
         <v>-2.3194171433372924E-3</v>
       </c>
       <c r="I13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I13*Main!$B$5)</f>
         <v>8.4597274328973793E-2</v>
       </c>
       <c r="J13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J13*Main!$B$5)</f>
         <v>0.1799796640645322</v>
       </c>
       <c r="K13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K13*Main!$B$5)</f>
         <v>0.21017480023634635</v>
       </c>
       <c r="L13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L13*Main!$B$5)</f>
         <v>0.10417558329020281</v>
       </c>
       <c r="M13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M13*Main!$B$5)</f>
         <v>-2.7607408440355171E-4</v>
       </c>
       <c r="N13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N13*Main!$B$5)</f>
         <v>0.32337127971202206</v>
       </c>
       <c r="O13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O13*Main!$B$5)</f>
         <v>0.37406772119707127</v>
       </c>
       <c r="P13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P13*Main!$B$5)</f>
         <v>0.36193694271102894</v>
       </c>
       <c r="Q13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q13*Main!$B$5)</f>
         <v>0.40330760809227167</v>
       </c>
       <c r="R13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R13*Main!$B$5)</f>
         <v>0.22156810523761122</v>
       </c>
       <c r="S13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S13*Main!$B$5)</f>
         <v>0.30604034503980965</v>
       </c>
       <c r="T13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T13*Main!$B$5)</f>
         <v>0.32530101850635157</v>
       </c>
       <c r="U13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U13*Main!$B$5)</f>
         <v>0.28998582837890868</v>
       </c>
       <c r="V13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V13*Main!$B$5)</f>
         <v>0.33540586738410844</v>
       </c>
       <c r="W13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W13*Main!$B$5)</f>
         <v>0.42202765829353261</v>
       </c>
       <c r="X13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X13*Main!$B$5)</f>
         <v>0.38699569677937817</v>
       </c>
       <c r="Y13" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y13*Main!$B$5)</f>
         <v>0.26070570941014415</v>
       </c>
     </row>
@@ -56642,99 +56642,99 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B14*Main!$B$5)</f>
         <v>2.8784093947748935E-2</v>
       </c>
       <c r="C14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C14*Main!$B$5)</f>
         <v>2.3517165938123478E-2</v>
       </c>
       <c r="D14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D14*Main!$B$5)</f>
         <v>3.3225538692665396E-2</v>
       </c>
       <c r="E14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E14*Main!$B$5)</f>
         <v>4.3333197228743882E-2</v>
       </c>
       <c r="F14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F14*Main!$B$5)</f>
         <v>4.4805997108753999E-2</v>
       </c>
       <c r="G14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G14*Main!$B$5)</f>
         <v>5.3544637438839977E-2</v>
       </c>
       <c r="H14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H14*Main!$B$5)</f>
         <v>0.19582096926510989</v>
       </c>
       <c r="I14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I14*Main!$B$5)</f>
         <v>0.24266169669217666</v>
       </c>
       <c r="J14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J14*Main!$B$5)</f>
         <v>0.27042547144408186</v>
       </c>
       <c r="K14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K14*Main!$B$5)</f>
         <v>0.2504617726237649</v>
       </c>
       <c r="L14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L14*Main!$B$5)</f>
         <v>0.22943289239353945</v>
       </c>
       <c r="M14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M14*Main!$B$5)</f>
         <v>0.2603389666889307</v>
       </c>
       <c r="N14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N14*Main!$B$5)</f>
         <v>0.2883682489363123</v>
       </c>
       <c r="O14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O14*Main!$B$5)</f>
         <v>0.25834946791770907</v>
       </c>
       <c r="P14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P14*Main!$B$5)</f>
         <v>0.26177232620135626</v>
       </c>
       <c r="Q14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q14*Main!$B$5)</f>
         <v>0.25615530970290512</v>
       </c>
       <c r="R14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R14*Main!$B$5)</f>
         <v>0.23084119129699551</v>
       </c>
       <c r="S14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S14*Main!$B$5)</f>
         <v>0.24101345585025563</v>
       </c>
       <c r="T14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T14*Main!$B$5)</f>
         <v>0.20221361290456663</v>
       </c>
       <c r="U14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U14*Main!$B$5)</f>
         <v>0.15576930319320448</v>
       </c>
       <c r="V14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V14*Main!$B$5)</f>
         <v>0.17260524594281795</v>
       </c>
       <c r="W14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W14*Main!$B$5)</f>
         <v>0.14635240834903568</v>
       </c>
       <c r="X14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X14*Main!$B$5)</f>
         <v>6.5030873366097156E-2</v>
       </c>
       <c r="Y14" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y14*Main!$B$5)</f>
         <v>4.6473386686260422E-2</v>
       </c>
     </row>
@@ -56743,99 +56743,99 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B15*Main!$B$5)</f>
         <v>0.58079708548539621</v>
       </c>
       <c r="C15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C15*Main!$B$5)</f>
         <v>0.59448999961727278</v>
       </c>
       <c r="D15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D15*Main!$B$5)</f>
         <v>0.59574211273837607</v>
       </c>
       <c r="E15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E15*Main!$B$5)</f>
         <v>0.6113541429756949</v>
       </c>
       <c r="F15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F15*Main!$B$5)</f>
         <v>0.60044644439393269</v>
       </c>
       <c r="G15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G15*Main!$B$5)</f>
         <v>0.58977098992867272</v>
       </c>
       <c r="H15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H15*Main!$B$5)</f>
         <v>0.51242410332141908</v>
       </c>
       <c r="I15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I15*Main!$B$5)</f>
         <v>0.39918289825336356</v>
       </c>
       <c r="J15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J15*Main!$B$5)</f>
         <v>0.33288972659739618</v>
       </c>
       <c r="K15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K15*Main!$B$5)</f>
         <v>0.28110163692907136</v>
       </c>
       <c r="L15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L15*Main!$B$5)</f>
         <v>0.37311518036254537</v>
       </c>
       <c r="M15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M15*Main!$B$5)</f>
         <v>0.36806508043339659</v>
       </c>
       <c r="N15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N15*Main!$B$5)</f>
         <v>0.3272131288045188</v>
       </c>
       <c r="O15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O15*Main!$B$5)</f>
         <v>0.27016696387148204</v>
       </c>
       <c r="P15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P15*Main!$B$5)</f>
         <v>0.37511015793099522</v>
       </c>
       <c r="Q15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q15*Main!$B$5)</f>
         <v>0.44000490927030717</v>
       </c>
       <c r="R15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R15*Main!$B$5)</f>
         <v>0.42190616746277038</v>
       </c>
       <c r="S15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S15*Main!$B$5)</f>
         <v>0.46616217987433478</v>
       </c>
       <c r="T15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T15*Main!$B$5)</f>
         <v>0.47238502780373381</v>
       </c>
       <c r="U15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U15*Main!$B$5)</f>
         <v>0.52304250307348654</v>
       </c>
       <c r="V15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V15*Main!$B$5)</f>
         <v>0.51028940844370974</v>
       </c>
       <c r="W15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W15*Main!$B$5)</f>
         <v>0.56642551651841433</v>
       </c>
       <c r="X15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X15*Main!$B$5)</f>
         <v>0.58619631265641647</v>
       </c>
       <c r="Y15" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y15*Main!$B$5)</f>
         <v>0.56303996876572338</v>
       </c>
     </row>
@@ -56844,99 +56844,99 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!B16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!B16*Main!$B$5)</f>
         <v>5.8042951457093914E-2</v>
       </c>
       <c r="C16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!C16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!C16*Main!$B$5)</f>
         <v>3.9790256802170153E-2</v>
       </c>
       <c r="D16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!D16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!D16*Main!$B$5)</f>
         <v>3.4845846353969333E-2</v>
       </c>
       <c r="E16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!E16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!E16*Main!$B$5)</f>
         <v>4.4666329441452178E-2</v>
       </c>
       <c r="F16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!F16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!F16*Main!$B$5)</f>
         <v>3.8847503792387827E-2</v>
       </c>
       <c r="G16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!G16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!G16*Main!$B$5)</f>
         <v>3.2258670589882799E-2</v>
       </c>
       <c r="H16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!H16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!H16*Main!$B$5)</f>
         <v>2.616224755253823E-2</v>
       </c>
       <c r="I16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!I16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!I16*Main!$B$5)</f>
         <v>9.0501389484411859E-2</v>
       </c>
       <c r="J16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!J16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!J16*Main!$B$5)</f>
         <v>9.5611304819560039E-2</v>
       </c>
       <c r="K16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!K16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!K16*Main!$B$5)</f>
         <v>8.3662980916538066E-2</v>
       </c>
       <c r="L16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!L16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!L16*Main!$B$5)</f>
         <v>9.6508363079729986E-2</v>
       </c>
       <c r="M16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!M16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!M16*Main!$B$5)</f>
         <v>8.9675457288534724E-2</v>
       </c>
       <c r="N16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!N16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!N16*Main!$B$5)</f>
         <v>8.9169842674444416E-2</v>
       </c>
       <c r="O16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!O16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!O16*Main!$B$5)</f>
         <v>8.0429567327660142E-2</v>
       </c>
       <c r="P16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!P16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!P16*Main!$B$5)</f>
         <v>4.7249990616596162E-2</v>
       </c>
       <c r="Q16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Q16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Q16*Main!$B$5)</f>
         <v>7.5473497701094544E-2</v>
       </c>
       <c r="R16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!R16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!R16*Main!$B$5)</f>
         <v>8.7830143823025439E-2</v>
       </c>
       <c r="S16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!S16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!S16*Main!$B$5)</f>
         <v>8.5295966754378033E-2</v>
       </c>
       <c r="T16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!T16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!T16*Main!$B$5)</f>
         <v>5.9613464950907184E-2</v>
       </c>
       <c r="U16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!U16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!U16*Main!$B$5)</f>
         <v>6.0026445269231891E-2</v>
       </c>
       <c r="V16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!V16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!V16*Main!$B$5)</f>
         <v>5.7038871767326221E-2</v>
       </c>
       <c r="W16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!W16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!W16*Main!$B$5)</f>
         <v>3.5381670776867206E-2</v>
       </c>
       <c r="X16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!X16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!X16*Main!$B$5)</f>
         <v>2.794473032712699E-2</v>
       </c>
       <c r="Y16" s="2">
-        <f ca="1">('[1]Qc, Winter, S2'!Y16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S2'!Y16*Main!$B$5)</f>
         <v>2.8963508187489866E-2</v>
       </c>
     </row>
@@ -57479,99 +57479,99 @@
         <v>1</v>
       </c>
       <c r="B2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B2*Main!$B$5)</f>
         <v>5.6893586081705916E-2</v>
       </c>
       <c r="C2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C2*Main!$B$5)</f>
         <v>4.019627983076373E-2</v>
       </c>
       <c r="D2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D2*Main!$B$5)</f>
         <v>3.5901781091968406E-2</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E2*Main!$B$5)</f>
         <v>4.601985457604163E-2</v>
       </c>
       <c r="F2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F2*Main!$B$5)</f>
         <v>3.9235978830311699E-2</v>
       </c>
       <c r="G2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G2*Main!$B$5)</f>
         <v>3.2578063368000454E-2</v>
       </c>
       <c r="H2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H2*Main!$B$5)</f>
         <v>2.6426512679331549E-2</v>
       </c>
       <c r="I2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I2*Main!$B$5)</f>
         <v>9.3271840182914276E-2</v>
       </c>
       <c r="J2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J2*Main!$B$5)</f>
         <v>9.6577075575313184E-2</v>
       </c>
       <c r="K2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K2*Main!$B$5)</f>
         <v>8.2834634570829777E-2</v>
       </c>
       <c r="L2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L2*Main!$B$5)</f>
         <v>9.7473446710527295E-2</v>
       </c>
       <c r="M2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M2*Main!$B$5)</f>
         <v>9.0572211861420046E-2</v>
       </c>
       <c r="N2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N2*Main!$B$5)</f>
         <v>9.007054815600446E-2</v>
       </c>
       <c r="O2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O2*Main!$B$5)</f>
         <v>8.123386300093674E-2</v>
       </c>
       <c r="P2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P2*Main!$B$5)</f>
         <v>4.6772717984105296E-2</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q2*Main!$B$5)</f>
         <v>7.6220760054570735E-2</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R2*Main!$B$5)</f>
         <v>8.8726369780403255E-2</v>
       </c>
       <c r="S2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S2*Main!$B$5)</f>
         <v>8.1951026881657327E-2</v>
       </c>
       <c r="T2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T2*Main!$B$5)</f>
         <v>5.7860127746468738E-2</v>
       </c>
       <c r="U2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U2*Main!$B$5)</f>
         <v>6.1845428459208623E-2</v>
       </c>
       <c r="V2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V2*Main!$B$5)</f>
         <v>5.5344647853445242E-2</v>
       </c>
       <c r="W2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W2*Main!$B$5)</f>
         <v>3.5031357204819022E-2</v>
       </c>
       <c r="X2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X2*Main!$B$5)</f>
         <v>2.8503624933669525E-2</v>
       </c>
       <c r="Y2" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y2*Main!$B$5)</f>
         <v>2.9253143269364765E-2</v>
       </c>
     </row>
@@ -57580,99 +57580,99 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B3*Main!$B$5)</f>
         <v>-0.23130114000581567</v>
       </c>
       <c r="C3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C3*Main!$B$5)</f>
         <v>-0.23125014458162135</v>
       </c>
       <c r="D3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D3*Main!$B$5)</f>
         <v>-0.2376310274321331</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E3*Main!$B$5)</f>
         <v>-0.23877115801140725</v>
       </c>
       <c r="F3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F3*Main!$B$5)</f>
         <v>-0.24371733671465154</v>
       </c>
       <c r="G3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G3*Main!$B$5)</f>
         <v>-0.21924632978878653</v>
       </c>
       <c r="H3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H3*Main!$B$5)</f>
         <v>-0.13761518786242241</v>
       </c>
       <c r="I3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I3*Main!$B$5)</f>
         <v>-2.7533325388100306E-2</v>
       </c>
       <c r="J3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J3*Main!$B$5)</f>
         <v>-2.9588050477632813E-2</v>
       </c>
       <c r="K3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K3*Main!$B$5)</f>
         <v>-1.9608200020971092E-2</v>
       </c>
       <c r="L3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L3*Main!$B$5)</f>
         <v>-1.7272816331075157E-2</v>
       </c>
       <c r="M3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M3*Main!$B$5)</f>
         <v>-7.5575943816212521E-2</v>
       </c>
       <c r="N3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N3*Main!$B$5)</f>
         <v>-0.11040833633306417</v>
       </c>
       <c r="O3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O3*Main!$B$5)</f>
         <v>-0.14312614381628458</v>
       </c>
       <c r="P3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P3*Main!$B$5)</f>
         <v>-0.14205011424200134</v>
       </c>
       <c r="Q3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q3*Main!$B$5)</f>
         <v>-0.14156330657177066</v>
       </c>
       <c r="R3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R3*Main!$B$5)</f>
         <v>-0.11243805758510318</v>
       </c>
       <c r="S3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S3*Main!$B$5)</f>
         <v>3.6955190101861123E-2</v>
       </c>
       <c r="T3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T3*Main!$B$5)</f>
         <v>-5.2608792940741535E-3</v>
       </c>
       <c r="U3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U3*Main!$B$5)</f>
         <v>-6.1479994227544993E-2</v>
       </c>
       <c r="V3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V3*Main!$B$5)</f>
         <v>-0.11741501168003302</v>
       </c>
       <c r="W3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W3*Main!$B$5)</f>
         <v>-0.15444968046110455</v>
       </c>
       <c r="X3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X3*Main!$B$5)</f>
         <v>-0.16939363684123482</v>
       </c>
       <c r="Y3" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y3*Main!$B$5)</f>
         <v>-0.19014471764515542</v>
       </c>
     </row>
@@ -57681,99 +57681,99 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B4*Main!$B$5)</f>
         <v>-0.81482106411149857</v>
       </c>
       <c r="C4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C4*Main!$B$5)</f>
         <v>-0.85307961100793317</v>
       </c>
       <c r="D4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D4*Main!$B$5)</f>
         <v>-0.86872696638887581</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E4*Main!$B$5)</f>
         <v>-0.89209321114923623</v>
       </c>
       <c r="F4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F4*Main!$B$5)</f>
         <v>-0.85782204421926322</v>
       </c>
       <c r="G4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G4*Main!$B$5)</f>
         <v>-0.74555560865339399</v>
       </c>
       <c r="H4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H4*Main!$B$5)</f>
         <v>-2.6673553559025474E-2</v>
       </c>
       <c r="I4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I4*Main!$B$5)</f>
         <v>0.37307804910323722</v>
       </c>
       <c r="J4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J4*Main!$B$5)</f>
         <v>0.4754949468032853</v>
       </c>
       <c r="K4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K4*Main!$B$5)</f>
         <v>0.3412786037220365</v>
       </c>
       <c r="L4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L4*Main!$B$5)</f>
         <v>0.19359682757430452</v>
       </c>
       <c r="M4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M4*Main!$B$5)</f>
         <v>0.3918444224348448</v>
       </c>
       <c r="N4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N4*Main!$B$5)</f>
         <v>0.24707748310082642</v>
       </c>
       <c r="O4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O4*Main!$B$5)</f>
         <v>7.3462393536265935E-2</v>
       </c>
       <c r="P4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P4*Main!$B$5)</f>
         <v>-0.30249705840543917</v>
       </c>
       <c r="Q4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q4*Main!$B$5)</f>
         <v>-0.29669194271443083</v>
       </c>
       <c r="R4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R4*Main!$B$5)</f>
         <v>-0.24929060112403051</v>
       </c>
       <c r="S4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S4*Main!$B$5)</f>
         <v>-0.12083022770690147</v>
       </c>
       <c r="T4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T4*Main!$B$5)</f>
         <v>-0.29449472154838685</v>
       </c>
       <c r="U4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U4*Main!$B$5)</f>
         <v>-0.16950707399000783</v>
       </c>
       <c r="V4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V4*Main!$B$5)</f>
         <v>-0.23742566623982939</v>
       </c>
       <c r="W4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W4*Main!$B$5)</f>
         <v>-0.38599995929058717</v>
       </c>
       <c r="X4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X4*Main!$B$5)</f>
         <v>-0.62214642114470209</v>
       </c>
       <c r="Y4" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y4*Main!$B$5)</f>
         <v>-0.69534909067865203</v>
       </c>
     </row>
@@ -57782,99 +57782,99 @@
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B5*Main!$B$5)</f>
         <v>-2.1218012594141062</v>
       </c>
       <c r="C5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C5*Main!$B$5)</f>
         <v>-2.1861350597461513</v>
       </c>
       <c r="D5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D5*Main!$B$5)</f>
         <v>-2.142843975995143</v>
       </c>
       <c r="E5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E5*Main!$B$5)</f>
         <v>-2.1836615557166312</v>
       </c>
       <c r="F5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F5*Main!$B$5)</f>
         <v>-2.2155391429993685</v>
       </c>
       <c r="G5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G5*Main!$B$5)</f>
         <v>-1.9850451840526793</v>
       </c>
       <c r="H5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H5*Main!$B$5)</f>
         <v>-1.7573857288270149</v>
       </c>
       <c r="I5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I5*Main!$B$5)</f>
         <v>-1.588443592962651</v>
       </c>
       <c r="J5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J5*Main!$B$5)</f>
         <v>-1.6514767241412311</v>
       </c>
       <c r="K5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K5*Main!$B$5)</f>
         <v>-1.811229264090253</v>
       </c>
       <c r="L5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L5*Main!$B$5)</f>
         <v>-1.9513867131887708</v>
       </c>
       <c r="M5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M5*Main!$B$5)</f>
         <v>-2.0248804746822864</v>
       </c>
       <c r="N5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N5*Main!$B$5)</f>
         <v>-2.1100219235724995</v>
       </c>
       <c r="O5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O5*Main!$B$5)</f>
         <v>-2.1066873223789364</v>
       </c>
       <c r="P5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P5*Main!$B$5)</f>
         <v>-2.1039567685200131</v>
       </c>
       <c r="Q5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q5*Main!$B$5)</f>
         <v>-2.061812157587116</v>
       </c>
       <c r="R5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R5*Main!$B$5)</f>
         <v>-1.7105430562366648</v>
       </c>
       <c r="S5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S5*Main!$B$5)</f>
         <v>-1.0611082202852971</v>
       </c>
       <c r="T5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T5*Main!$B$5)</f>
         <v>-1.3284104618104733</v>
       </c>
       <c r="U5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U5*Main!$B$5)</f>
         <v>-1.6439278169121454</v>
       </c>
       <c r="V5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V5*Main!$B$5)</f>
         <v>-1.7522066949799924</v>
       </c>
       <c r="W5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W5*Main!$B$5)</f>
         <v>-1.8537645355725263</v>
       </c>
       <c r="X5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X5*Main!$B$5)</f>
         <v>-1.9791863595010053</v>
       </c>
       <c r="Y5" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y5*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y5*Main!$B$5)</f>
         <v>-2.008460768517637</v>
       </c>
     </row>
@@ -57883,99 +57883,99 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B6*Main!$B$5)</f>
         <v>-0.45063755914067394</v>
       </c>
       <c r="C6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C6*Main!$B$5)</f>
         <v>-0.47328161079821718</v>
       </c>
       <c r="D6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D6*Main!$B$5)</f>
         <v>-0.49827737161198293</v>
       </c>
       <c r="E6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E6*Main!$B$5)</f>
         <v>-0.50005438134597635</v>
       </c>
       <c r="F6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F6*Main!$B$5)</f>
         <v>-0.47938074130382202</v>
       </c>
       <c r="G6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G6*Main!$B$5)</f>
         <v>-0.41644990118540498</v>
       </c>
       <c r="H6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H6*Main!$B$5)</f>
         <v>-0.3079517600906268</v>
       </c>
       <c r="I6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I6*Main!$B$5)</f>
         <v>-0.25430051730350611</v>
       </c>
       <c r="J6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J6*Main!$B$5)</f>
         <v>-0.24979479697811827</v>
       </c>
       <c r="K6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K6*Main!$B$5)</f>
         <v>-0.20505675468559498</v>
       </c>
       <c r="L6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L6*Main!$B$5)</f>
         <v>-0.20500008869558564</v>
       </c>
       <c r="M6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M6*Main!$B$5)</f>
         <v>-0.20473789174140752</v>
       </c>
       <c r="N6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N6*Main!$B$5)</f>
         <v>-0.23908696794988871</v>
       </c>
       <c r="O6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O6*Main!$B$5)</f>
         <v>-0.26778791851976164</v>
       </c>
       <c r="P6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P6*Main!$B$5)</f>
         <v>-0.26058687694050514</v>
       </c>
       <c r="Q6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q6*Main!$B$5)</f>
         <v>-0.32302390492573635</v>
       </c>
       <c r="R6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R6*Main!$B$5)</f>
         <v>-0.28056986682396379</v>
       </c>
       <c r="S6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S6*Main!$B$5)</f>
         <v>-0.14206546274106691</v>
       </c>
       <c r="T6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T6*Main!$B$5)</f>
         <v>-0.16822897097078321</v>
       </c>
       <c r="U6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U6*Main!$B$5)</f>
         <v>-0.20502721010889044</v>
       </c>
       <c r="V6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V6*Main!$B$5)</f>
         <v>-0.22362572745805542</v>
       </c>
       <c r="W6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W6*Main!$B$5)</f>
         <v>-0.28739011665860437</v>
       </c>
       <c r="X6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X6*Main!$B$5)</f>
         <v>-0.32104093756324381</v>
       </c>
       <c r="Y6" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y6*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y6*Main!$B$5)</f>
         <v>-0.34257072879080303</v>
       </c>
     </row>
@@ -57984,99 +57984,99 @@
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B7*Main!$B$5)</f>
         <v>3.4304925224960044E-2</v>
       </c>
       <c r="C7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C7*Main!$B$5)</f>
         <v>2.7376747034708424E-2</v>
       </c>
       <c r="D7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D7*Main!$B$5)</f>
         <v>2.0141078534038199E-2</v>
       </c>
       <c r="E7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E7*Main!$B$5)</f>
         <v>3.0924164251335002E-2</v>
       </c>
       <c r="F7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F7*Main!$B$5)</f>
         <v>2.5142359694624045E-2</v>
       </c>
       <c r="G7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G7*Main!$B$5)</f>
         <v>3.5498168983880536E-2</v>
       </c>
       <c r="H7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H7*Main!$B$5)</f>
         <v>4.7827252002974205E-2</v>
       </c>
       <c r="I7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I7*Main!$B$5)</f>
         <v>9.4098610319558046E-2</v>
       </c>
       <c r="J7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J7*Main!$B$5)</f>
         <v>0.11053772316487524</v>
       </c>
       <c r="K7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K7*Main!$B$5)</f>
         <v>0.11277881789590689</v>
       </c>
       <c r="L7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L7*Main!$B$5)</f>
         <v>0.10704544401250063</v>
       </c>
       <c r="M7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M7*Main!$B$5)</f>
         <v>0.11418672699578812</v>
       </c>
       <c r="N7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N7*Main!$B$5)</f>
         <v>0.11109394826334756</v>
       </c>
       <c r="O7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O7*Main!$B$5)</f>
         <v>0.11091497247914853</v>
       </c>
       <c r="P7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P7*Main!$B$5)</f>
         <v>9.3285780400299001E-2</v>
       </c>
       <c r="Q7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q7*Main!$B$5)</f>
         <v>8.8735407858651638E-2</v>
       </c>
       <c r="R7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R7*Main!$B$5)</f>
         <v>7.8665170741146345E-2</v>
       </c>
       <c r="S7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S7*Main!$B$5)</f>
         <v>8.3525962851871582E-2</v>
       </c>
       <c r="T7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T7*Main!$B$5)</f>
         <v>7.2232459703499979E-2</v>
       </c>
       <c r="U7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U7*Main!$B$5)</f>
         <v>7.3137765277058217E-2</v>
       </c>
       <c r="V7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V7*Main!$B$5)</f>
         <v>6.2467485032358369E-2</v>
       </c>
       <c r="W7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W7*Main!$B$5)</f>
         <v>6.7749435448394318E-2</v>
       </c>
       <c r="X7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X7*Main!$B$5)</f>
         <v>4.1646843108794775E-2</v>
       </c>
       <c r="Y7" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y7*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y7*Main!$B$5)</f>
         <v>4.1498864720335156E-2</v>
       </c>
     </row>
@@ -58085,99 +58085,99 @@
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B8*Main!$B$5)</f>
         <v>-0.527725019562725</v>
       </c>
       <c r="C8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C8*Main!$B$5)</f>
         <v>-0.51668247169434189</v>
       </c>
       <c r="D8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D8*Main!$B$5)</f>
         <v>-0.54922987487490271</v>
       </c>
       <c r="E8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E8*Main!$B$5)</f>
         <v>-0.54809550125860773</v>
       </c>
       <c r="F8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F8*Main!$B$5)</f>
         <v>-0.59815029239116702</v>
       </c>
       <c r="G8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G8*Main!$B$5)</f>
         <v>-0.5303084829701058</v>
       </c>
       <c r="H8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H8*Main!$B$5)</f>
         <v>-0.43714196219249651</v>
       </c>
       <c r="I8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I8*Main!$B$5)</f>
         <v>-0.23170242466745974</v>
       </c>
       <c r="J8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J8*Main!$B$5)</f>
         <v>-0.11250678643507638</v>
       </c>
       <c r="K8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K8*Main!$B$5)</f>
         <v>-0.10549680843902121</v>
       </c>
       <c r="L8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L8*Main!$B$5)</f>
         <v>-8.1804165021257882E-2</v>
       </c>
       <c r="M8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M8*Main!$B$5)</f>
         <v>-2.7219244967304657E-2</v>
       </c>
       <c r="N8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N8*Main!$B$5)</f>
         <v>-0.11051346557446227</v>
       </c>
       <c r="O8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O8*Main!$B$5)</f>
         <v>-0.11416999684393822</v>
       </c>
       <c r="P8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P8*Main!$B$5)</f>
         <v>-0.20809022698313118</v>
       </c>
       <c r="Q8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q8*Main!$B$5)</f>
         <v>-0.29736884057845286</v>
       </c>
       <c r="R8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R8*Main!$B$5)</f>
         <v>-0.27380764796707285</v>
       </c>
       <c r="S8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S8*Main!$B$5)</f>
         <v>-0.30843167865357091</v>
       </c>
       <c r="T8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T8*Main!$B$5)</f>
         <v>-0.34004535689350524</v>
       </c>
       <c r="U8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U8*Main!$B$5)</f>
         <v>-0.32973805100952336</v>
       </c>
       <c r="V8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V8*Main!$B$5)</f>
         <v>-0.37173343874359943</v>
       </c>
       <c r="W8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W8*Main!$B$5)</f>
         <v>-0.42945863450965316</v>
       </c>
       <c r="X8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X8*Main!$B$5)</f>
         <v>-0.50431331672424728</v>
       </c>
       <c r="Y8" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y8*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y8*Main!$B$5)</f>
         <v>-0.49179543306234125</v>
       </c>
     </row>
@@ -58186,99 +58186,99 @@
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B9*Main!$B$5)</f>
         <v>-0.30036599424313948</v>
       </c>
       <c r="C9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C9*Main!$B$5)</f>
         <v>-0.30671623180088975</v>
       </c>
       <c r="D9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D9*Main!$B$5)</f>
         <v>-0.3085871889192297</v>
       </c>
       <c r="E9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E9*Main!$B$5)</f>
         <v>-0.31430662127549464</v>
       </c>
       <c r="F9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F9*Main!$B$5)</f>
         <v>-0.29877332435237247</v>
       </c>
       <c r="G9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G9*Main!$B$5)</f>
         <v>-0.28380474985881649</v>
       </c>
       <c r="H9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H9*Main!$B$5)</f>
         <v>-0.2169522036065909</v>
       </c>
       <c r="I9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I9*Main!$B$5)</f>
         <v>-0.17787841237813601</v>
       </c>
       <c r="J9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J9*Main!$B$5)</f>
         <v>-0.15937588905744624</v>
       </c>
       <c r="K9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K9*Main!$B$5)</f>
         <v>-0.18387632595917053</v>
       </c>
       <c r="L9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L9*Main!$B$5)</f>
         <v>-0.17538505032124663</v>
       </c>
       <c r="M9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M9*Main!$B$5)</f>
         <v>-0.16307251623832791</v>
       </c>
       <c r="N9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N9*Main!$B$5)</f>
         <v>-0.17286023403812292</v>
       </c>
       <c r="O9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O9*Main!$B$5)</f>
         <v>-0.18531517270789583</v>
       </c>
       <c r="P9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P9*Main!$B$5)</f>
         <v>-0.22070162000517049</v>
       </c>
       <c r="Q9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q9*Main!$B$5)</f>
         <v>-0.25217745278098419</v>
       </c>
       <c r="R9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R9*Main!$B$5)</f>
         <v>-0.25150940357374613</v>
       </c>
       <c r="S9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S9*Main!$B$5)</f>
         <v>-0.24315830736100671</v>
       </c>
       <c r="T9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T9*Main!$B$5)</f>
         <v>-0.26142876372398988</v>
       </c>
       <c r="U9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U9*Main!$B$5)</f>
         <v>-0.27031186337971508</v>
       </c>
       <c r="V9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V9*Main!$B$5)</f>
         <v>-0.26954914225026161</v>
       </c>
       <c r="W9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W9*Main!$B$5)</f>
         <v>-0.27190462008537952</v>
       </c>
       <c r="X9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X9*Main!$B$5)</f>
         <v>-0.28377443044706246</v>
       </c>
       <c r="Y9" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y9*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y9*Main!$B$5)</f>
         <v>-0.29806502897516324</v>
       </c>
     </row>
@@ -58287,99 +58287,99 @@
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B10*Main!$B$5)</f>
         <v>-0.35590456615738664</v>
       </c>
       <c r="C10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C10*Main!$B$5)</f>
         <v>-0.39320176785141314</v>
       </c>
       <c r="D10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D10*Main!$B$5)</f>
         <v>-0.40590889791916557</v>
       </c>
       <c r="E10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E10*Main!$B$5)</f>
         <v>-0.39736773628987937</v>
       </c>
       <c r="F10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F10*Main!$B$5)</f>
         <v>-0.40289822772468975</v>
       </c>
       <c r="G10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G10*Main!$B$5)</f>
         <v>-0.34980664533622463</v>
       </c>
       <c r="H10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H10*Main!$B$5)</f>
         <v>-0.2197818340729448</v>
       </c>
       <c r="I10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I10*Main!$B$5)</f>
         <v>-2.4459904003610037E-2</v>
       </c>
       <c r="J10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J10*Main!$B$5)</f>
         <v>1.3166437031577499E-2</v>
       </c>
       <c r="K10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K10*Main!$B$5)</f>
         <v>-7.462753185252133E-3</v>
       </c>
       <c r="L10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L10*Main!$B$5)</f>
         <v>-1.0773589653468585E-2</v>
       </c>
       <c r="M10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M10*Main!$B$5)</f>
         <v>-5.4896923207679608E-3</v>
       </c>
       <c r="N10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N10*Main!$B$5)</f>
         <v>-4.7448891955942596E-2</v>
       </c>
       <c r="O10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O10*Main!$B$5)</f>
         <v>-8.7766974709398204E-2</v>
       </c>
       <c r="P10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P10*Main!$B$5)</f>
         <v>-0.17216189779343888</v>
       </c>
       <c r="Q10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q10*Main!$B$5)</f>
         <v>-0.17941943067927046</v>
       </c>
       <c r="R10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R10*Main!$B$5)</f>
         <v>-0.14969525745678561</v>
       </c>
       <c r="S10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S10*Main!$B$5)</f>
         <v>-4.5345632088135343E-2</v>
       </c>
       <c r="T10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T10*Main!$B$5)</f>
         <v>-0.11872890372582795</v>
       </c>
       <c r="U10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U10*Main!$B$5)</f>
         <v>-0.14255130260927687</v>
       </c>
       <c r="V10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V10*Main!$B$5)</f>
         <v>-0.18478671469419722</v>
       </c>
       <c r="W10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W10*Main!$B$5)</f>
         <v>-0.24661693633998322</v>
       </c>
       <c r="X10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X10*Main!$B$5)</f>
         <v>-0.31238347623281987</v>
       </c>
       <c r="Y10" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y10*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y10*Main!$B$5)</f>
         <v>-0.33218406903521036</v>
       </c>
     </row>
@@ -58388,99 +58388,99 @@
         <v>10</v>
       </c>
       <c r="B11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B11*Main!$B$5)</f>
         <v>-0.18558914202723481</v>
       </c>
       <c r="C11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C11*Main!$B$5)</f>
         <v>-0.18538317920503283</v>
       </c>
       <c r="D11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D11*Main!$B$5)</f>
         <v>-0.18940874287379211</v>
       </c>
       <c r="E11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E11*Main!$B$5)</f>
         <v>-0.1907464484867703</v>
       </c>
       <c r="F11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F11*Main!$B$5)</f>
         <v>-0.18275624601145765</v>
       </c>
       <c r="G11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G11*Main!$B$5)</f>
         <v>-0.17259696602007604</v>
       </c>
       <c r="H11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H11*Main!$B$5)</f>
         <v>-0.13329571240957896</v>
       </c>
       <c r="I11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I11*Main!$B$5)</f>
         <v>-0.10559268628756929</v>
       </c>
       <c r="J11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J11*Main!$B$5)</f>
         <v>-6.7375531650417195E-2</v>
       </c>
       <c r="K11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K11*Main!$B$5)</f>
         <v>-4.009982833959156E-2</v>
       </c>
       <c r="L11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L11*Main!$B$5)</f>
         <v>-5.1300687004645226E-2</v>
       </c>
       <c r="M11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M11*Main!$B$5)</f>
         <v>-3.9604757437224324E-2</v>
       </c>
       <c r="N11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N11*Main!$B$5)</f>
         <v>-4.6291246433870975E-2</v>
       </c>
       <c r="O11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O11*Main!$B$5)</f>
         <v>-6.6276077868960073E-2</v>
       </c>
       <c r="P11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P11*Main!$B$5)</f>
         <v>-8.5386188808188726E-2</v>
       </c>
       <c r="Q11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q11*Main!$B$5)</f>
         <v>-8.8940979495793979E-2</v>
       </c>
       <c r="R11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R11*Main!$B$5)</f>
         <v>-9.1456461948261111E-2</v>
       </c>
       <c r="S11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S11*Main!$B$5)</f>
         <v>-5.9910353786546633E-2</v>
       </c>
       <c r="T11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T11*Main!$B$5)</f>
         <v>-7.4795749480746979E-2</v>
       </c>
       <c r="U11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U11*Main!$B$5)</f>
         <v>-8.9998884927867784E-2</v>
       </c>
       <c r="V11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V11*Main!$B$5)</f>
         <v>-0.10583904109538808</v>
       </c>
       <c r="W11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W11*Main!$B$5)</f>
         <v>-0.1333017932471659</v>
       </c>
       <c r="X11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X11*Main!$B$5)</f>
         <v>-0.16661562789904968</v>
       </c>
       <c r="Y11" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y11*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y11*Main!$B$5)</f>
         <v>-0.17477173736320517</v>
       </c>
     </row>
@@ -58489,99 +58489,99 @@
         <v>11</v>
       </c>
       <c r="B12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B12*Main!$B$5)</f>
         <v>-0.1127766501714816</v>
       </c>
       <c r="C12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C12*Main!$B$5)</f>
         <v>-0.11616285123593337</v>
       </c>
       <c r="D12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D12*Main!$B$5)</f>
         <v>-0.1171265166629497</v>
       </c>
       <c r="E12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E12*Main!$B$5)</f>
         <v>-0.11698541670936125</v>
       </c>
       <c r="F12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F12*Main!$B$5)</f>
         <v>-0.11321038774735244</v>
       </c>
       <c r="G12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G12*Main!$B$5)</f>
         <v>-9.1362820978017803E-2</v>
       </c>
       <c r="H12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H12*Main!$B$5)</f>
         <v>-7.1444257626260471E-2</v>
       </c>
       <c r="I12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I12*Main!$B$5)</f>
         <v>-6.383471878823678E-2</v>
       </c>
       <c r="J12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J12*Main!$B$5)</f>
         <v>-4.4356856552164772E-2</v>
       </c>
       <c r="K12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K12*Main!$B$5)</f>
         <v>-2.9853205832183091E-2</v>
       </c>
       <c r="L12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L12*Main!$B$5)</f>
         <v>-6.6058725189413331E-2</v>
       </c>
       <c r="M12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M12*Main!$B$5)</f>
         <v>-6.1664190540483527E-2</v>
       </c>
       <c r="N12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N12*Main!$B$5)</f>
         <v>-7.1626670905989495E-2</v>
       </c>
       <c r="O12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O12*Main!$B$5)</f>
         <v>-7.0064720355379806E-2</v>
       </c>
       <c r="P12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P12*Main!$B$5)</f>
         <v>-7.7954293610275616E-2</v>
       </c>
       <c r="Q12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q12*Main!$B$5)</f>
         <v>-7.9604524583049535E-2</v>
       </c>
       <c r="R12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R12*Main!$B$5)</f>
         <v>-6.6463026755953641E-2</v>
       </c>
       <c r="S12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S12*Main!$B$5)</f>
         <v>-4.5344548029920377E-2</v>
       </c>
       <c r="T12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T12*Main!$B$5)</f>
         <v>-6.1330890197520284E-2</v>
       </c>
       <c r="U12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U12*Main!$B$5)</f>
         <v>-7.0603953419686935E-2</v>
       </c>
       <c r="V12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V12*Main!$B$5)</f>
         <v>-7.7399922848342739E-2</v>
       </c>
       <c r="W12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W12*Main!$B$5)</f>
         <v>-8.0847322174471228E-2</v>
       </c>
       <c r="X12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X12*Main!$B$5)</f>
         <v>-8.5587986040372016E-2</v>
       </c>
       <c r="Y12" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y12*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y12*Main!$B$5)</f>
         <v>-8.9872805909334733E-2</v>
       </c>
     </row>
@@ -58590,99 +58590,99 @@
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B13*Main!$B$5)</f>
         <v>-2.9223518521994785E-2</v>
       </c>
       <c r="C13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C13*Main!$B$5)</f>
         <v>4.854152397834266E-2</v>
       </c>
       <c r="D13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D13*Main!$B$5)</f>
         <v>0.10269014263915967</v>
       </c>
       <c r="E13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E13*Main!$B$5)</f>
         <v>8.879666511575518E-2</v>
       </c>
       <c r="F13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F13*Main!$B$5)</f>
         <v>6.9739315024532997E-2</v>
       </c>
       <c r="G13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G13*Main!$B$5)</f>
         <v>-6.9551923241950239E-2</v>
       </c>
       <c r="H13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H13*Main!$B$5)</f>
         <v>-2.3658054862040383E-3</v>
       </c>
       <c r="I13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I13*Main!$B$5)</f>
         <v>8.4597274328973793E-2</v>
       </c>
       <c r="J13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J13*Main!$B$5)</f>
         <v>0.18543359327860895</v>
       </c>
       <c r="K13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K13*Main!$B$5)</f>
         <v>0.21875336351129929</v>
       </c>
       <c r="L13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L13*Main!$B$5)</f>
         <v>0.10313382745730078</v>
       </c>
       <c r="M13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M13*Main!$B$5)</f>
         <v>-2.679542583916825E-4</v>
       </c>
       <c r="N13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N13*Main!$B$5)</f>
         <v>0.33657010745536992</v>
       </c>
       <c r="O13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O13*Main!$B$5)</f>
         <v>0.36658636677312983</v>
       </c>
       <c r="P13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P13*Main!$B$5)</f>
         <v>0.35838854131190118</v>
       </c>
       <c r="Q13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q13*Main!$B$5)</f>
         <v>0.41552905076173446</v>
       </c>
       <c r="R13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R13*Main!$B$5)</f>
         <v>0.21933004356854446</v>
       </c>
       <c r="S13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S13*Main!$B$5)</f>
         <v>0.30604034503980965</v>
       </c>
       <c r="T13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T13*Main!$B$5)</f>
         <v>0.33857861109844756</v>
       </c>
       <c r="U13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U13*Main!$B$5)</f>
         <v>0.29590390650909049</v>
       </c>
       <c r="V13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V13*Main!$B$5)</f>
         <v>0.3254433168677488</v>
       </c>
       <c r="W13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W13*Main!$B$5)</f>
         <v>0.43481637521151839</v>
       </c>
       <c r="X13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X13*Main!$B$5)</f>
         <v>0.3948935681422226</v>
       </c>
       <c r="Y13" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y13*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y13*Main!$B$5)</f>
         <v>0.27134675877382353</v>
       </c>
     </row>
@@ -58691,99 +58691,99 @@
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B14*Main!$B$5)</f>
         <v>2.9077809192113724E-2</v>
       </c>
       <c r="C14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C14*Main!$B$5)</f>
         <v>2.327961880743536E-2</v>
       </c>
       <c r="D14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D14*Main!$B$5)</f>
         <v>3.3903610910883071E-2</v>
       </c>
       <c r="E14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E14*Main!$B$5)</f>
         <v>4.2908361961795413E-2</v>
       </c>
       <c r="F14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F14*Main!$B$5)</f>
         <v>4.3475125907503874E-2</v>
       </c>
       <c r="G14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G14*Main!$B$5)</f>
         <v>5.3003782515215335E-2</v>
       </c>
       <c r="H14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H14*Main!$B$5)</f>
         <v>0.1997769484421828</v>
       </c>
       <c r="I14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I14*Main!$B$5)</f>
         <v>0.24266169669217666</v>
       </c>
       <c r="J14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J14*Main!$B$5)</f>
         <v>0.26512301121968812</v>
       </c>
       <c r="K14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K14*Main!$B$5)</f>
         <v>0.25294159215469331</v>
       </c>
       <c r="L14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L14*Main!$B$5)</f>
         <v>0.22943289239353945</v>
       </c>
       <c r="M14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M14*Main!$B$5)</f>
         <v>0.26554574602270931</v>
       </c>
       <c r="N14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N14*Main!$B$5)</f>
         <v>0.29425331524113502</v>
       </c>
       <c r="O14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O14*Main!$B$5)</f>
         <v>0.25834946791770907</v>
       </c>
       <c r="P14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P14*Main!$B$5)</f>
         <v>0.25150674478169521</v>
       </c>
       <c r="Q14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q14*Main!$B$5)</f>
         <v>0.26127841589696321</v>
       </c>
       <c r="R14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R14*Main!$B$5)</f>
         <v>0.22853277938402558</v>
       </c>
       <c r="S14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S14*Main!$B$5)</f>
         <v>0.23862718401015406</v>
       </c>
       <c r="T14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T14*Main!$B$5)</f>
         <v>0.20840382554450232</v>
       </c>
       <c r="U14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U14*Main!$B$5)</f>
         <v>0.15421161016127244</v>
       </c>
       <c r="V14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V14*Main!$B$5)</f>
         <v>0.17089628311170096</v>
       </c>
       <c r="W14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W14*Main!$B$5)</f>
         <v>0.15232597603675144</v>
       </c>
       <c r="X14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X14*Main!$B$5)</f>
         <v>6.6344628383594076E-2</v>
       </c>
       <c r="Y14" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y14*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y14*Main!$B$5)</f>
         <v>4.6008652819397811E-2</v>
       </c>
     </row>
@@ -58792,99 +58792,99 @@
         <v>14</v>
       </c>
       <c r="B15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B15*Main!$B$5)</f>
         <v>0.59241302719510402</v>
       </c>
       <c r="C15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C15*Main!$B$5)</f>
         <v>0.6063797996096183</v>
       </c>
       <c r="D15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D15*Main!$B$5)</f>
         <v>0.60175970983674354</v>
       </c>
       <c r="E15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E15*Main!$B$5)</f>
         <v>0.59319510902592187</v>
       </c>
       <c r="F15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F15*Main!$B$5)</f>
         <v>0.59450143009300271</v>
       </c>
       <c r="G15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G15*Main!$B$5)</f>
         <v>0.56664271581382286</v>
       </c>
       <c r="H15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H15*Main!$B$5)</f>
         <v>0.50729986228820478</v>
       </c>
       <c r="I15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I15*Main!$B$5)</f>
         <v>0.41547607777390899</v>
       </c>
       <c r="J15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J15*Main!$B$5)</f>
         <v>0.33288972659739618</v>
       </c>
       <c r="K15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K15*Main!$B$5)</f>
         <v>0.28961986835116443</v>
       </c>
       <c r="L15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L15*Main!$B$5)</f>
         <v>0.36565287675529445</v>
       </c>
       <c r="M15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M15*Main!$B$5)</f>
         <v>0.36438442962906264</v>
       </c>
       <c r="N15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N15*Main!$B$5)</f>
         <v>0.32073366090739958</v>
       </c>
       <c r="O15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O15*Main!$B$5)</f>
         <v>0.27568057537906332</v>
       </c>
       <c r="P15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P15*Main!$B$5)</f>
         <v>0.36396827205185678</v>
       </c>
       <c r="Q15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q15*Main!$B$5)</f>
         <v>0.44000490927030717</v>
       </c>
       <c r="R15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R15*Main!$B$5)</f>
         <v>0.42190616746277038</v>
       </c>
       <c r="S15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S15*Main!$B$5)</f>
         <v>0.457021744974838</v>
       </c>
       <c r="T15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T15*Main!$B$5)</f>
         <v>0.46293732724765907</v>
       </c>
       <c r="U15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U15*Main!$B$5)</f>
         <v>0.51791463539629545</v>
       </c>
       <c r="V15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V15*Main!$B$5)</f>
         <v>0.5051349699745814</v>
       </c>
       <c r="W15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W15*Main!$B$5)</f>
         <v>0.54976594250316679</v>
       </c>
       <c r="X15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X15*Main!$B$5)</f>
         <v>0.56878454099335463</v>
       </c>
       <c r="Y15" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y15*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y15*Main!$B$5)</f>
         <v>0.57453058037318705</v>
       </c>
     </row>
@@ -58893,99 +58893,99 @@
         <v>15</v>
       </c>
       <c r="B16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!B16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!B16*Main!$B$5)</f>
         <v>5.7468268769399922E-2</v>
       </c>
       <c r="C16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!C16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!C16*Main!$B$5)</f>
         <v>4.1008325887950878E-2</v>
       </c>
       <c r="D16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!D16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!D16*Main!$B$5)</f>
         <v>3.4845846353969333E-2</v>
       </c>
       <c r="E16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!E16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!E16*Main!$B$5)</f>
         <v>4.5117504486315331E-2</v>
       </c>
       <c r="F16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!F16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!F16*Main!$B$5)</f>
         <v>3.8847503792387827E-2</v>
       </c>
       <c r="G16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!G16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!G16*Main!$B$5)</f>
         <v>3.2258670589882799E-2</v>
       </c>
       <c r="H16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!H16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!H16*Main!$B$5)</f>
         <v>2.6955042932918179E-2</v>
       </c>
       <c r="I16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!I16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!I16*Main!$B$5)</f>
         <v>9.1424873050579322E-2</v>
       </c>
       <c r="J16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!J16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!J16*Main!$B$5)</f>
         <v>9.8508617086819433E-2</v>
       </c>
       <c r="K16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!K16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!K16*Main!$B$5)</f>
         <v>8.4491327262246382E-2</v>
       </c>
       <c r="L16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!L16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!L16*Main!$B$5)</f>
         <v>9.843853034132459E-2</v>
       </c>
       <c r="M16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!M16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!M16*Main!$B$5)</f>
         <v>8.9675457288534724E-2</v>
       </c>
       <c r="N16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!N16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!N16*Main!$B$5)</f>
         <v>9.1871959119124547E-2</v>
       </c>
       <c r="O16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!O16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!O16*Main!$B$5)</f>
         <v>8.123386300093674E-2</v>
       </c>
       <c r="P16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!P16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!P16*Main!$B$5)</f>
         <v>4.6772717984105296E-2</v>
       </c>
       <c r="Q16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Q16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Q16*Main!$B$5)</f>
         <v>7.3978972994142189E-2</v>
       </c>
       <c r="R16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!R16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!R16*Main!$B$5)</f>
         <v>9.0518821695158874E-2</v>
       </c>
       <c r="S16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!S16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!S16*Main!$B$5)</f>
         <v>8.3623496818017673E-2</v>
       </c>
       <c r="T16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!T16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!T16*Main!$B$5)</f>
         <v>5.9029019216094367E-2</v>
       </c>
       <c r="U16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!U16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!U16*Main!$B$5)</f>
         <v>6.1845428459208623E-2</v>
       </c>
       <c r="V16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!V16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!V16*Main!$B$5)</f>
         <v>5.7603613071953212E-2</v>
       </c>
       <c r="W16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!W16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!W16*Main!$B$5)</f>
         <v>3.5731984348915405E-2</v>
       </c>
       <c r="X16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!X16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!X16*Main!$B$5)</f>
         <v>2.738583572058445E-2</v>
       </c>
       <c r="Y16" s="2">
-        <f ca="1">('[1]Qc, Winter, S3'!Y16*Main!$B$5)</f>
+        <f>('[1]Qc, Winter, S3'!Y16*Main!$B$5)</f>
         <v>2.8384238023740068E-2</v>
       </c>
     </row>

--- a/data/CS2/case18_1/case18_1_2020.xlsx
+++ b/data/CS2/case18_1/case18_1_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DEE6EE2-E57F-408A-A1FF-E8A83F66A280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB8DE37-1A46-4D64-90F9-215C202BE892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="5010" windowWidth="21600" windowHeight="12675" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" firstSheet="26" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18963,8 +18963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19055,7 +19055,7 @@
   <dimension ref="A1:Y23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22633,7 +22633,7 @@
   <dimension ref="A1:Y7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26867,7 +26867,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Y16"/>
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28917,7 +28917,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44849,7 +44849,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B3" sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46591,7 +46591,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6851FC-63BB-4AB6-932F-B54727AC9E45}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -47144,7 +47146,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A16"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/CS2/case18_1/case18_1_2020.xlsx
+++ b/data/CS2/case18_1/case18_1_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS2\case18_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB8DE37-1A46-4D64-90F9-215C202BE892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46A0B47-094D-438F-9805-F89C4FD70C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1830" windowWidth="29040" windowHeight="17640" firstSheet="26" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -18963,8 +18963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18980,16 +18980,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <f>5/7</f>
-        <v>0.7142857142857143</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <f>1/7</f>
-        <v>0.14285714285714285</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -46591,8 +46591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6851FC-63BB-4AB6-932F-B54727AC9E45}">
   <dimension ref="A1:Y7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
